--- a/assessment2/submission/assessment2_calcs.xlsx
+++ b/assessment2/submission/assessment2_calcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078941E-D690-4D41-9112-5E3FEF206942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5237F6-8FBC-4D0C-97CC-8E1100EB5BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="730" activeTab="5" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="730" activeTab="4" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1223,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1334,115 +1334,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1460,15 +1356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1548,6 +1435,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19725,10 +19723,10 @@
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11"/>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="99" t="s">
         <v>37</v>
       </c>
     </row>
@@ -19799,19 +19797,19 @@
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="147" t="s">
+      <c r="D15" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="147" t="s">
+      <c r="E15" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="99" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="15"/>
@@ -19823,13 +19821,13 @@
       <c r="C16" s="68">
         <v>0</v>
       </c>
-      <c r="D16" s="148">
+      <c r="D16" s="109">
         <v>70</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="109">
         <v>30</v>
       </c>
-      <c r="F16" s="148">
+      <c r="F16" s="109">
         <v>100</v>
       </c>
       <c r="G16" s="29">
@@ -19843,13 +19841,13 @@
       <c r="C17" s="47">
         <v>70</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="70">
         <v>0</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="70">
         <v>100</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="70">
         <v>80</v>
       </c>
       <c r="G17" s="36">
@@ -19863,13 +19861,13 @@
       <c r="C18" s="47">
         <v>80</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="70">
         <v>100</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="70">
         <v>30</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="70">
         <v>20</v>
       </c>
       <c r="G18" s="36">
@@ -19883,13 +19881,13 @@
       <c r="C19" s="47">
         <v>100</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="70">
         <v>30</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="70">
         <v>50</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="70">
         <v>70</v>
       </c>
       <c r="G19" s="36">
@@ -19903,13 +19901,13 @@
       <c r="C20" s="47">
         <v>50</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="70">
         <v>90</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="70">
         <v>70</v>
       </c>
-      <c r="F20" s="95">
+      <c r="F20" s="70">
         <v>0</v>
       </c>
       <c r="G20" s="36">
@@ -19917,26 +19915,26 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="158">
+      <c r="C21" s="119">
         <f>SUMPRODUCT(C16:C20,$D$7:$D$11)/100</f>
         <v>55.483870967741943</v>
       </c>
-      <c r="D21" s="159">
+      <c r="D21" s="120">
         <f t="shared" ref="D21:G21" si="1">SUMPRODUCT(D16:D20,$D$7:$D$11)/100</f>
         <v>57.41935483870968</v>
       </c>
-      <c r="E21" s="159">
+      <c r="E21" s="120">
         <f t="shared" si="1"/>
         <v>58.387096774193544</v>
       </c>
-      <c r="F21" s="159">
+      <c r="F21" s="120">
         <f t="shared" si="1"/>
         <v>56.451612903225808</v>
       </c>
-      <c r="G21" s="150">
+      <c r="G21" s="111">
         <f t="shared" si="1"/>
         <v>89.354838709677423</v>
       </c>
@@ -19948,16 +19946,16 @@
     </row>
     <row r="24" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="147" t="s">
+      <c r="D25" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="137" t="s">
+      <c r="E25" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="154" t="s">
+      <c r="F25" s="115" t="s">
         <v>46</v>
       </c>
     </row>
@@ -19965,16 +19963,16 @@
       <c r="B26" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="160">
+      <c r="C26" s="121">
         <v>105000</v>
       </c>
-      <c r="D26" s="163">
+      <c r="D26" s="124">
         <v>50000</v>
       </c>
-      <c r="E26" s="153">
+      <c r="E26" s="114">
         <v>25000</v>
       </c>
-      <c r="F26" s="155">
+      <c r="F26" s="116">
         <f>SUM(C26:E26)</f>
         <v>180000</v>
       </c>
@@ -19983,16 +19981,16 @@
       <c r="B27" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="122">
         <v>60000</v>
       </c>
-      <c r="D27" s="164">
+      <c r="D27" s="125">
         <v>40000</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="112">
         <v>40000</v>
       </c>
-      <c r="F27" s="156">
+      <c r="F27" s="117">
         <f t="shared" ref="F27:F30" si="2">SUM(C27:E27)</f>
         <v>140000</v>
       </c>
@@ -20003,16 +20001,16 @@
       <c r="B28" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="161">
+      <c r="C28" s="122">
         <v>35000</v>
       </c>
-      <c r="D28" s="164">
+      <c r="D28" s="125">
         <v>45000</v>
       </c>
-      <c r="E28" s="151">
+      <c r="E28" s="112">
         <v>45000</v>
       </c>
-      <c r="F28" s="156">
+      <c r="F28" s="117">
         <f t="shared" si="2"/>
         <v>125000</v>
       </c>
@@ -20023,16 +20021,16 @@
       <c r="B29" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C29" s="122">
         <v>75000</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="125">
         <v>20000</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="112">
         <v>35000</v>
       </c>
-      <c r="F29" s="156">
+      <c r="F29" s="117">
         <f t="shared" si="2"/>
         <v>130000</v>
       </c>
@@ -20043,16 +20041,16 @@
       <c r="B30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="123">
         <v>90000</v>
       </c>
-      <c r="D30" s="165">
+      <c r="D30" s="126">
         <v>25000</v>
       </c>
-      <c r="E30" s="152">
+      <c r="E30" s="113">
         <v>50000</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="118">
         <f t="shared" si="2"/>
         <v>165000</v>
       </c>
@@ -20085,56 +20083,56 @@
       <c r="B59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="99" t="s">
+      <c r="E59" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="99" t="s">
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="100"/>
-      <c r="N59" s="101"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="138"/>
     </row>
     <row r="60" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="143" t="s">
+      <c r="D60" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="167" t="s">
+      <c r="E60" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="168" t="s">
+      <c r="F60" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="168" t="s">
+      <c r="G60" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="168" t="s">
+      <c r="H60" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="I60" s="166" t="s">
+      <c r="I60" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="J60" s="167" t="s">
+      <c r="J60" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="168" t="s">
+      <c r="K60" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="L60" s="168" t="s">
+      <c r="L60" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="M60" s="168" t="s">
+      <c r="M60" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="N60" s="166" t="s">
+      <c r="N60" s="127" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20146,19 +20144,19 @@
         <f>SUM($C$7:$C$11)-$C$8+C61</f>
         <v>210</v>
       </c>
-      <c r="E61" s="119">
+      <c r="E61" s="83">
         <f>$C$7/D61*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="F61" s="97">
+      <c r="F61" s="71">
         <f>$C61/D61*100</f>
         <v>0</v>
       </c>
-      <c r="G61" s="97">
+      <c r="G61" s="71">
         <f>$C$9/D61*100</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="H61" s="97">
+      <c r="H61" s="71">
         <f>$C$10/D61*100</f>
         <v>4.7619047619047619</v>
       </c>
@@ -20166,19 +20164,19 @@
         <f>$C$11/D61*100</f>
         <v>19.047619047619047</v>
       </c>
-      <c r="J61" s="170" cm="1">
+      <c r="J61" s="131" cm="1">
         <f t="array" ref="J61">SUMPRODUCT(TRANSPOSE($E61:$I61),C$16:C$20)/100</f>
         <v>48.571428571428569</v>
       </c>
-      <c r="K61" s="132" cm="1">
+      <c r="K61" s="93" cm="1">
         <f t="array" ref="K61">SUMPRODUCT(TRANSPOSE($E61:$I61),D$16:D$20)/100</f>
         <v>84.761904761904759</v>
       </c>
-      <c r="L61" s="132" cm="1">
+      <c r="L61" s="93" cm="1">
         <f t="array" ref="L61">SUMPRODUCT(TRANSPOSE($E61:$I61),E$16:E$20)/100</f>
         <v>38.571428571428569</v>
       </c>
-      <c r="M61" s="132" cm="1">
+      <c r="M61" s="93" cm="1">
         <f t="array" ref="M61">SUMPRODUCT(TRANSPOSE($E61:$I61),F$16:F$20)/100</f>
         <v>45.238095238095227</v>
       </c>
@@ -20195,19 +20193,19 @@
         <f t="shared" ref="D62:D71" si="3">SUM($C$7:$C$11)-$C$8+C62</f>
         <v>220</v>
       </c>
-      <c r="E62" s="119">
+      <c r="E62" s="83">
         <f t="shared" ref="E62:E71" si="4">$C$7/D62*100</f>
         <v>31.818181818181817</v>
       </c>
-      <c r="F62" s="97">
+      <c r="F62" s="71">
         <f t="shared" ref="F62:F71" si="5">$C62/D62*100</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G62" s="97">
+      <c r="G62" s="71">
         <f t="shared" ref="G62:G71" si="6">$C$9/D62*100</f>
         <v>40.909090909090914</v>
       </c>
-      <c r="H62" s="97">
+      <c r="H62" s="71">
         <f t="shared" ref="H62:H71" si="7">$C$10/D62*100</f>
         <v>4.5454545454545459</v>
       </c>
@@ -20215,19 +20213,19 @@
         <f t="shared" ref="I62:I71" si="8">$C$11/D62*100</f>
         <v>18.181818181818183</v>
       </c>
-      <c r="J62" s="170" cm="1">
+      <c r="J62" s="131" cm="1">
         <f t="array" ref="J62">SUMPRODUCT(TRANSPOSE($E62:$I62),C$16:C$20)/100</f>
         <v>49.545454545454547</v>
       </c>
-      <c r="K62" s="132" cm="1">
+      <c r="K62" s="93" cm="1">
         <f t="array" ref="K62">SUMPRODUCT(TRANSPOSE($E62:$I62),D$16:D$20)/100</f>
         <v>80.909090909090907</v>
       </c>
-      <c r="L62" s="132" cm="1">
+      <c r="L62" s="93" cm="1">
         <f t="array" ref="L62">SUMPRODUCT(TRANSPOSE($E62:$I62),E$16:E$20)/100</f>
         <v>41.363636363636367</v>
       </c>
-      <c r="M62" s="132" cm="1">
+      <c r="M62" s="93" cm="1">
         <f t="array" ref="M62">SUMPRODUCT(TRANSPOSE($E62:$I62),F$16:F$20)/100</f>
         <v>46.818181818181813</v>
       </c>
@@ -20244,19 +20242,19 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="E63" s="119">
+      <c r="E63" s="83">
         <f t="shared" si="4"/>
         <v>30.434782608695656</v>
       </c>
-      <c r="F63" s="97">
+      <c r="F63" s="71">
         <f t="shared" si="5"/>
         <v>8.695652173913043</v>
       </c>
-      <c r="G63" s="97">
+      <c r="G63" s="71">
         <f t="shared" si="6"/>
         <v>39.130434782608695</v>
       </c>
-      <c r="H63" s="97">
+      <c r="H63" s="71">
         <f t="shared" si="7"/>
         <v>4.3478260869565215</v>
       </c>
@@ -20264,19 +20262,19 @@
         <f t="shared" si="8"/>
         <v>17.391304347826086</v>
       </c>
-      <c r="J63" s="170" cm="1">
+      <c r="J63" s="131" cm="1">
         <f t="array" ref="J63">SUMPRODUCT(TRANSPOSE($E63:$I63),C$16:C$20)/100</f>
         <v>50.434782608695649</v>
       </c>
-      <c r="K63" s="132" cm="1">
+      <c r="K63" s="93" cm="1">
         <f t="array" ref="K63">SUMPRODUCT(TRANSPOSE($E63:$I63),D$16:D$20)/100</f>
         <v>77.391304347826093</v>
       </c>
-      <c r="L63" s="132" cm="1">
+      <c r="L63" s="93" cm="1">
         <f t="array" ref="L63">SUMPRODUCT(TRANSPOSE($E63:$I63),E$16:E$20)/100</f>
         <v>43.913043478260867</v>
       </c>
-      <c r="M63" s="132" cm="1">
+      <c r="M63" s="93" cm="1">
         <f t="array" ref="M63">SUMPRODUCT(TRANSPOSE($E63:$I63),F$16:F$20)/100</f>
         <v>48.260869565217398</v>
       </c>
@@ -20293,19 +20291,19 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="E64" s="119">
+      <c r="E64" s="83">
         <f t="shared" si="4"/>
         <v>29.166666666666668</v>
       </c>
-      <c r="F64" s="97">
+      <c r="F64" s="71">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="G64" s="97">
+      <c r="G64" s="71">
         <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
-      <c r="H64" s="97">
+      <c r="H64" s="71">
         <f t="shared" si="7"/>
         <v>4.1666666666666661</v>
       </c>
@@ -20313,19 +20311,19 @@
         <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="J64" s="170" cm="1">
+      <c r="J64" s="131" cm="1">
         <f t="array" ref="J64">SUMPRODUCT(TRANSPOSE($E64:$I64),C$16:C$20)/100</f>
         <v>51.25</v>
       </c>
-      <c r="K64" s="132" cm="1">
+      <c r="K64" s="93" cm="1">
         <f t="array" ref="K64">SUMPRODUCT(TRANSPOSE($E64:$I64),D$16:D$20)/100</f>
         <v>74.166666666666671</v>
       </c>
-      <c r="L64" s="132" cm="1">
+      <c r="L64" s="93" cm="1">
         <f t="array" ref="L64">SUMPRODUCT(TRANSPOSE($E64:$I64),E$16:E$20)/100</f>
         <v>46.25</v>
       </c>
-      <c r="M64" s="132" cm="1">
+      <c r="M64" s="93" cm="1">
         <f t="array" ref="M64">SUMPRODUCT(TRANSPOSE($E64:$I64),F$16:F$20)/100</f>
         <v>49.583333333333343</v>
       </c>
@@ -20342,19 +20340,19 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="E65" s="119">
+      <c r="E65" s="83">
         <f t="shared" si="4"/>
         <v>28.000000000000004</v>
       </c>
-      <c r="F65" s="97">
+      <c r="F65" s="71">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G65" s="97">
+      <c r="G65" s="71">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="H65" s="97">
+      <c r="H65" s="71">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -20362,19 +20360,19 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="J65" s="170" cm="1">
+      <c r="J65" s="131" cm="1">
         <f t="array" ref="J65">SUMPRODUCT(TRANSPOSE($E65:$I65),C$16:C$20)/100</f>
         <v>52</v>
       </c>
-      <c r="K65" s="132" cm="1">
+      <c r="K65" s="93" cm="1">
         <f t="array" ref="K65">SUMPRODUCT(TRANSPOSE($E65:$I65),D$16:D$20)/100</f>
         <v>71.2</v>
       </c>
-      <c r="L65" s="132" cm="1">
+      <c r="L65" s="93" cm="1">
         <f t="array" ref="L65">SUMPRODUCT(TRANSPOSE($E65:$I65),E$16:E$20)/100</f>
         <v>48.4</v>
       </c>
-      <c r="M65" s="132" cm="1">
+      <c r="M65" s="93" cm="1">
         <f t="array" ref="M65">SUMPRODUCT(TRANSPOSE($E65:$I65),F$16:F$20)/100</f>
         <v>50.8</v>
       </c>
@@ -20391,19 +20389,19 @@
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="E66" s="119">
+      <c r="E66" s="83">
         <f t="shared" si="4"/>
         <v>26.923076923076923</v>
       </c>
-      <c r="F66" s="97">
+      <c r="F66" s="71">
         <f t="shared" si="5"/>
         <v>19.230769230769234</v>
       </c>
-      <c r="G66" s="97">
+      <c r="G66" s="71">
         <f t="shared" si="6"/>
         <v>34.615384615384613</v>
       </c>
-      <c r="H66" s="97">
+      <c r="H66" s="71">
         <f t="shared" si="7"/>
         <v>3.8461538461538463</v>
       </c>
@@ -20411,19 +20409,19 @@
         <f t="shared" si="8"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="J66" s="170" cm="1">
+      <c r="J66" s="131" cm="1">
         <f t="array" ref="J66">SUMPRODUCT(TRANSPOSE($E66:$I66),C$16:C$20)/100</f>
         <v>52.692307692307693</v>
       </c>
-      <c r="K66" s="132" cm="1">
+      <c r="K66" s="93" cm="1">
         <f t="array" ref="K66">SUMPRODUCT(TRANSPOSE($E66:$I66),D$16:D$20)/100</f>
         <v>68.461538461538453</v>
       </c>
-      <c r="L66" s="132" cm="1">
+      <c r="L66" s="93" cm="1">
         <f t="array" ref="L66">SUMPRODUCT(TRANSPOSE($E66:$I66),E$16:E$20)/100</f>
         <v>50.384615384615387</v>
       </c>
-      <c r="M66" s="132" cm="1">
+      <c r="M66" s="93" cm="1">
         <f t="array" ref="M66">SUMPRODUCT(TRANSPOSE($E66:$I66),F$16:F$20)/100</f>
         <v>51.923076923076927</v>
       </c>
@@ -20440,19 +20438,19 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="E67" s="119">
+      <c r="E67" s="83">
         <f t="shared" si="4"/>
         <v>25.925925925925924</v>
       </c>
-      <c r="F67" s="97">
+      <c r="F67" s="71">
         <f t="shared" si="5"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="G67" s="97">
+      <c r="G67" s="71">
         <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="H67" s="97">
+      <c r="H67" s="71">
         <f t="shared" si="7"/>
         <v>3.7037037037037033</v>
       </c>
@@ -20460,19 +20458,19 @@
         <f t="shared" si="8"/>
         <v>14.814814814814813</v>
       </c>
-      <c r="J67" s="170" cm="1">
+      <c r="J67" s="131" cm="1">
         <f t="array" ref="J67">SUMPRODUCT(TRANSPOSE($E67:$I67),C$16:C$20)/100</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="K67" s="132" cm="1">
+      <c r="K67" s="93" cm="1">
         <f t="array" ref="K67">SUMPRODUCT(TRANSPOSE($E67:$I67),D$16:D$20)/100</f>
         <v>65.925925925925924</v>
       </c>
-      <c r="L67" s="132" cm="1">
+      <c r="L67" s="93" cm="1">
         <f t="array" ref="L67">SUMPRODUCT(TRANSPOSE($E67:$I67),E$16:E$20)/100</f>
         <v>52.222222222222229</v>
       </c>
-      <c r="M67" s="132" cm="1">
+      <c r="M67" s="93" cm="1">
         <f t="array" ref="M67">SUMPRODUCT(TRANSPOSE($E67:$I67),F$16:F$20)/100</f>
         <v>52.962962962962955</v>
       </c>
@@ -20489,19 +20487,19 @@
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="E68" s="119">
+      <c r="E68" s="83">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F68" s="97">
+      <c r="F68" s="71">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G68" s="97">
+      <c r="G68" s="71">
         <f t="shared" si="6"/>
         <v>32.142857142857146</v>
       </c>
-      <c r="H68" s="97">
+      <c r="H68" s="71">
         <f t="shared" si="7"/>
         <v>3.5714285714285712</v>
       </c>
@@ -20509,19 +20507,19 @@
         <f t="shared" si="8"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="J68" s="170" cm="1">
+      <c r="J68" s="131" cm="1">
         <f t="array" ref="J68">SUMPRODUCT(TRANSPOSE($E68:$I68),C$16:C$20)/100</f>
         <v>53.928571428571431</v>
       </c>
-      <c r="K68" s="132" cm="1">
+      <c r="K68" s="93" cm="1">
         <f t="array" ref="K68">SUMPRODUCT(TRANSPOSE($E68:$I68),D$16:D$20)/100</f>
         <v>63.571428571428569</v>
       </c>
-      <c r="L68" s="132" cm="1">
+      <c r="L68" s="93" cm="1">
         <f t="array" ref="L68">SUMPRODUCT(TRANSPOSE($E68:$I68),E$16:E$20)/100</f>
         <v>53.928571428571431</v>
       </c>
-      <c r="M68" s="132" cm="1">
+      <c r="M68" s="93" cm="1">
         <f t="array" ref="M68">SUMPRODUCT(TRANSPOSE($E68:$I68),F$16:F$20)/100</f>
         <v>53.928571428571431</v>
       </c>
@@ -20538,19 +20536,19 @@
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="E69" s="119">
+      <c r="E69" s="83">
         <f t="shared" si="4"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="F69" s="97">
+      <c r="F69" s="71">
         <f t="shared" si="5"/>
         <v>27.586206896551722</v>
       </c>
-      <c r="G69" s="97">
+      <c r="G69" s="71">
         <f t="shared" si="6"/>
         <v>31.03448275862069</v>
       </c>
-      <c r="H69" s="97">
+      <c r="H69" s="71">
         <f t="shared" si="7"/>
         <v>3.4482758620689653</v>
       </c>
@@ -20558,19 +20556,19 @@
         <f t="shared" si="8"/>
         <v>13.793103448275861</v>
       </c>
-      <c r="J69" s="170" cm="1">
+      <c r="J69" s="131" cm="1">
         <f t="array" ref="J69">SUMPRODUCT(TRANSPOSE($E69:$I69),C$16:C$20)/100</f>
         <v>54.482758620689658</v>
       </c>
-      <c r="K69" s="132" cm="1">
+      <c r="K69" s="93" cm="1">
         <f t="array" ref="K69">SUMPRODUCT(TRANSPOSE($E69:$I69),D$16:D$20)/100</f>
         <v>61.379310344827587</v>
       </c>
-      <c r="L69" s="132" cm="1">
+      <c r="L69" s="93" cm="1">
         <f t="array" ref="L69">SUMPRODUCT(TRANSPOSE($E69:$I69),E$16:E$20)/100</f>
         <v>55.517241379310342</v>
       </c>
-      <c r="M69" s="132" cm="1">
+      <c r="M69" s="93" cm="1">
         <f t="array" ref="M69">SUMPRODUCT(TRANSPOSE($E69:$I69),F$16:F$20)/100</f>
         <v>54.827586206896548</v>
       </c>
@@ -20587,19 +20585,19 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E70" s="119">
+      <c r="E70" s="83">
         <f t="shared" si="4"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="71">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="G70" s="97">
+      <c r="G70" s="71">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="71">
         <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
@@ -20607,19 +20605,19 @@
         <f t="shared" si="8"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="J70" s="170" cm="1">
+      <c r="J70" s="131" cm="1">
         <f t="array" ref="J70">SUMPRODUCT(TRANSPOSE($E70:$I70),C$16:C$20)/100</f>
         <v>55</v>
       </c>
-      <c r="K70" s="132" cm="1">
+      <c r="K70" s="93" cm="1">
         <f t="array" ref="K70">SUMPRODUCT(TRANSPOSE($E70:$I70),D$16:D$20)/100</f>
         <v>59.333333333333329</v>
       </c>
-      <c r="L70" s="132" cm="1">
+      <c r="L70" s="93" cm="1">
         <f t="array" ref="L70">SUMPRODUCT(TRANSPOSE($E70:$I70),E$16:E$20)/100</f>
         <v>57</v>
       </c>
-      <c r="M70" s="132" cm="1">
+      <c r="M70" s="93" cm="1">
         <f t="array" ref="M70">SUMPRODUCT(TRANSPOSE($E70:$I70),F$16:F$20)/100</f>
         <v>55.666666666666657</v>
       </c>
@@ -20636,19 +20634,19 @@
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="E71" s="120">
+      <c r="E71" s="84">
         <f t="shared" si="4"/>
         <v>22.58064516129032</v>
       </c>
-      <c r="F71" s="169">
+      <c r="F71" s="130">
         <f t="shared" si="5"/>
         <v>32.258064516129032</v>
       </c>
-      <c r="G71" s="169">
+      <c r="G71" s="130">
         <f t="shared" si="6"/>
         <v>29.032258064516132</v>
       </c>
-      <c r="H71" s="169">
+      <c r="H71" s="130">
         <f t="shared" si="7"/>
         <v>3.225806451612903</v>
       </c>
@@ -20656,19 +20654,19 @@
         <f t="shared" si="8"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="J71" s="171" cm="1">
+      <c r="J71" s="132" cm="1">
         <f t="array" ref="J71">SUMPRODUCT(TRANSPOSE($E71:$I71),C$16:C$20)/100</f>
         <v>55.483870967741943</v>
       </c>
-      <c r="K71" s="133" cm="1">
+      <c r="K71" s="94" cm="1">
         <f t="array" ref="K71">SUMPRODUCT(TRANSPOSE($E71:$I71),D$16:D$20)/100</f>
         <v>57.41935483870968</v>
       </c>
-      <c r="L71" s="133" cm="1">
+      <c r="L71" s="94" cm="1">
         <f t="array" ref="L71">SUMPRODUCT(TRANSPOSE($E71:$I71),E$16:E$20)/100</f>
         <v>58.387096774193544</v>
       </c>
-      <c r="M71" s="133" cm="1">
+      <c r="M71" s="94" cm="1">
         <f t="array" ref="M71">SUMPRODUCT(TRANSPOSE($E71:$I71),F$16:F$20)/100</f>
         <v>56.451612903225808</v>
       </c>
@@ -20682,56 +20680,56 @@
       <c r="B96" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E96" s="99" t="s">
+      <c r="E96" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="F96" s="100"/>
-      <c r="G96" s="100"/>
-      <c r="H96" s="100"/>
-      <c r="I96" s="101"/>
-      <c r="J96" s="99" t="s">
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="138"/>
+      <c r="J96" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="K96" s="100"/>
-      <c r="L96" s="100"/>
-      <c r="M96" s="100"/>
-      <c r="N96" s="101"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="138"/>
     </row>
     <row r="97" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="172" t="s">
+      <c r="C97" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D97" s="143" t="s">
+      <c r="D97" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="173" t="s">
+      <c r="E97" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="174" t="s">
+      <c r="F97" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="G97" s="174" t="s">
+      <c r="G97" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="H97" s="174" t="s">
+      <c r="H97" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="I97" s="166" t="s">
+      <c r="I97" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="J97" s="173" t="s">
+      <c r="J97" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="K97" s="174" t="s">
+      <c r="K97" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="L97" s="174" t="s">
+      <c r="L97" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="M97" s="174" t="s">
+      <c r="M97" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="N97" s="166" t="s">
+      <c r="N97" s="127" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20743,19 +20741,19 @@
         <f>SUM($C$7:$C$11)-$C$9+C98</f>
         <v>220</v>
       </c>
-      <c r="E98" s="119">
+      <c r="E98" s="83">
         <f>$C$7/D98*100</f>
         <v>31.818181818181817</v>
       </c>
-      <c r="F98" s="97">
+      <c r="F98" s="71">
         <f>$C$8/D98*100</f>
         <v>45.454545454545453</v>
       </c>
-      <c r="G98" s="97">
+      <c r="G98" s="71">
         <f>$C98/D98*100</f>
         <v>0</v>
       </c>
-      <c r="H98" s="97">
+      <c r="H98" s="71">
         <f>$C$10/D98*100</f>
         <v>4.5454545454545459</v>
       </c>
@@ -20763,19 +20761,19 @@
         <f>$C$11/D98*100</f>
         <v>18.181818181818183</v>
       </c>
-      <c r="J98" s="170" cm="1">
+      <c r="J98" s="131" cm="1">
         <f t="array" ref="J98">SUMPRODUCT(TRANSPOSE($E98:$I98),C$16:C$20)/100</f>
         <v>45.454545454545453</v>
       </c>
-      <c r="K98" s="132" cm="1">
+      <c r="K98" s="93" cm="1">
         <f t="array" ref="K98">SUMPRODUCT(TRANSPOSE($E98:$I98),D$16:D$20)/100</f>
         <v>40</v>
       </c>
-      <c r="L98" s="132" cm="1">
+      <c r="L98" s="93" cm="1">
         <f t="array" ref="L98">SUMPRODUCT(TRANSPOSE($E98:$I98),E$16:E$20)/100</f>
         <v>70</v>
       </c>
-      <c r="M98" s="132" cm="1">
+      <c r="M98" s="93" cm="1">
         <f t="array" ref="M98">SUMPRODUCT(TRANSPOSE($E98:$I98),F$16:F$20)/100</f>
         <v>71.36363636363636</v>
       </c>
@@ -20792,19 +20790,19 @@
         <f t="shared" ref="D99:D108" si="9">SUM($C$7:$C$11)-$C$9+C99</f>
         <v>230</v>
       </c>
-      <c r="E99" s="119">
+      <c r="E99" s="83">
         <f t="shared" ref="E99:E108" si="10">$C$7/D99*100</f>
         <v>30.434782608695656</v>
       </c>
-      <c r="F99" s="97">
+      <c r="F99" s="71">
         <f t="shared" ref="F99:F108" si="11">$C$8/D99*100</f>
         <v>43.478260869565219</v>
       </c>
-      <c r="G99" s="97">
+      <c r="G99" s="71">
         <f t="shared" ref="G99:G108" si="12">$C99/D99*100</f>
         <v>4.3478260869565215</v>
       </c>
-      <c r="H99" s="97">
+      <c r="H99" s="71">
         <f t="shared" ref="H99:H108" si="13">$C$10/D99*100</f>
         <v>4.3478260869565215</v>
       </c>
@@ -20812,19 +20810,19 @@
         <f t="shared" ref="I99:I108" si="14">$C$11/D99*100</f>
         <v>17.391304347826086</v>
       </c>
-      <c r="J99" s="170" cm="1">
+      <c r="J99" s="131" cm="1">
         <f t="array" ref="J99">SUMPRODUCT(TRANSPOSE($E99:$I99),C$16:C$20)/100</f>
         <v>46.95652173913043</v>
       </c>
-      <c r="K99" s="132" cm="1">
+      <c r="K99" s="93" cm="1">
         <f t="array" ref="K99">SUMPRODUCT(TRANSPOSE($E99:$I99),D$16:D$20)/100</f>
         <v>42.608695652173907</v>
       </c>
-      <c r="L99" s="132" cm="1">
+      <c r="L99" s="93" cm="1">
         <f t="array" ref="L99">SUMPRODUCT(TRANSPOSE($E99:$I99),E$16:E$20)/100</f>
         <v>68.260869565217405</v>
       </c>
-      <c r="M99" s="132" cm="1">
+      <c r="M99" s="93" cm="1">
         <f t="array" ref="M99">SUMPRODUCT(TRANSPOSE($E99:$I99),F$16:F$20)/100</f>
         <v>69.130434782608702</v>
       </c>
@@ -20841,19 +20839,19 @@
         <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="E100" s="119">
+      <c r="E100" s="83">
         <f t="shared" si="10"/>
         <v>29.166666666666668</v>
       </c>
-      <c r="F100" s="97">
+      <c r="F100" s="71">
         <f t="shared" si="11"/>
         <v>41.666666666666671</v>
       </c>
-      <c r="G100" s="97">
+      <c r="G100" s="71">
         <f t="shared" si="12"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="H100" s="97">
+      <c r="H100" s="71">
         <f t="shared" si="13"/>
         <v>4.1666666666666661</v>
       </c>
@@ -20861,19 +20859,19 @@
         <f t="shared" si="14"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="J100" s="170" cm="1">
+      <c r="J100" s="131" cm="1">
         <f t="array" ref="J100">SUMPRODUCT(TRANSPOSE($E100:$I100),C$16:C$20)/100</f>
         <v>48.333333333333329</v>
       </c>
-      <c r="K100" s="132" cm="1">
+      <c r="K100" s="93" cm="1">
         <f t="array" ref="K100">SUMPRODUCT(TRANSPOSE($E100:$I100),D$16:D$20)/100</f>
         <v>45</v>
       </c>
-      <c r="L100" s="132" cm="1">
+      <c r="L100" s="93" cm="1">
         <f t="array" ref="L100">SUMPRODUCT(TRANSPOSE($E100:$I100),E$16:E$20)/100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="M100" s="132" cm="1">
+      <c r="M100" s="93" cm="1">
         <f t="array" ref="M100">SUMPRODUCT(TRANSPOSE($E100:$I100),F$16:F$20)/100</f>
         <v>67.083333333333343</v>
       </c>
@@ -20890,19 +20888,19 @@
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="E101" s="119">
+      <c r="E101" s="83">
         <f t="shared" si="10"/>
         <v>28.000000000000004</v>
       </c>
-      <c r="F101" s="97">
+      <c r="F101" s="71">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="G101" s="97">
+      <c r="G101" s="71">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="H101" s="97">
+      <c r="H101" s="71">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -20910,19 +20908,19 @@
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="J101" s="170" cm="1">
+      <c r="J101" s="131" cm="1">
         <f t="array" ref="J101">SUMPRODUCT(TRANSPOSE($E101:$I101),C$16:C$20)/100</f>
         <v>49.6</v>
       </c>
-      <c r="K101" s="132" cm="1">
+      <c r="K101" s="93" cm="1">
         <f t="array" ref="K101">SUMPRODUCT(TRANSPOSE($E101:$I101),D$16:D$20)/100</f>
         <v>47.2</v>
       </c>
-      <c r="L101" s="132" cm="1">
+      <c r="L101" s="93" cm="1">
         <f t="array" ref="L101">SUMPRODUCT(TRANSPOSE($E101:$I101),E$16:E$20)/100</f>
         <v>65.2</v>
       </c>
-      <c r="M101" s="132" cm="1">
+      <c r="M101" s="93" cm="1">
         <f t="array" ref="M101">SUMPRODUCT(TRANSPOSE($E101:$I101),F$16:F$20)/100</f>
         <v>65.2</v>
       </c>
@@ -20939,19 +20937,19 @@
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="E102" s="119">
+      <c r="E102" s="83">
         <f t="shared" si="10"/>
         <v>26.923076923076923</v>
       </c>
-      <c r="F102" s="97">
+      <c r="F102" s="71">
         <f t="shared" si="11"/>
         <v>38.461538461538467</v>
       </c>
-      <c r="G102" s="97">
+      <c r="G102" s="71">
         <f t="shared" si="12"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="H102" s="97">
+      <c r="H102" s="71">
         <f t="shared" si="13"/>
         <v>3.8461538461538463</v>
       </c>
@@ -20959,19 +20957,19 @@
         <f t="shared" si="14"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="J102" s="170" cm="1">
+      <c r="J102" s="131" cm="1">
         <f t="array" ref="J102">SUMPRODUCT(TRANSPOSE($E102:$I102),C$16:C$20)/100</f>
         <v>50.769230769230781</v>
       </c>
-      <c r="K102" s="132" cm="1">
+      <c r="K102" s="93" cm="1">
         <f t="array" ref="K102">SUMPRODUCT(TRANSPOSE($E102:$I102),D$16:D$20)/100</f>
         <v>49.230769230769226</v>
       </c>
-      <c r="L102" s="132" cm="1">
+      <c r="L102" s="93" cm="1">
         <f t="array" ref="L102">SUMPRODUCT(TRANSPOSE($E102:$I102),E$16:E$20)/100</f>
         <v>63.846153846153854</v>
       </c>
-      <c r="M102" s="132" cm="1">
+      <c r="M102" s="93" cm="1">
         <f t="array" ref="M102">SUMPRODUCT(TRANSPOSE($E102:$I102),F$16:F$20)/100</f>
         <v>63.461538461538467</v>
       </c>
@@ -20988,19 +20986,19 @@
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="E103" s="119">
+      <c r="E103" s="83">
         <f t="shared" si="10"/>
         <v>25.925925925925924</v>
       </c>
-      <c r="F103" s="97">
+      <c r="F103" s="71">
         <f t="shared" si="11"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="G103" s="97">
+      <c r="G103" s="71">
         <f t="shared" si="12"/>
         <v>18.518518518518519</v>
       </c>
-      <c r="H103" s="97">
+      <c r="H103" s="71">
         <f t="shared" si="13"/>
         <v>3.7037037037037033</v>
       </c>
@@ -21008,19 +21006,19 @@
         <f t="shared" si="14"/>
         <v>14.814814814814813</v>
       </c>
-      <c r="J103" s="170" cm="1">
+      <c r="J103" s="131" cm="1">
         <f t="array" ref="J103">SUMPRODUCT(TRANSPOSE($E103:$I103),C$16:C$20)/100</f>
         <v>51.851851851851855</v>
       </c>
-      <c r="K103" s="132" cm="1">
+      <c r="K103" s="93" cm="1">
         <f t="array" ref="K103">SUMPRODUCT(TRANSPOSE($E103:$I103),D$16:D$20)/100</f>
         <v>51.111111111111114</v>
       </c>
-      <c r="L103" s="132" cm="1">
+      <c r="L103" s="93" cm="1">
         <f t="array" ref="L103">SUMPRODUCT(TRANSPOSE($E103:$I103),E$16:E$20)/100</f>
         <v>62.592592592592588</v>
       </c>
-      <c r="M103" s="132" cm="1">
+      <c r="M103" s="93" cm="1">
         <f t="array" ref="M103">SUMPRODUCT(TRANSPOSE($E103:$I103),F$16:F$20)/100</f>
         <v>61.851851851851841</v>
       </c>
@@ -21037,19 +21035,19 @@
         <f t="shared" si="9"/>
         <v>280</v>
       </c>
-      <c r="E104" s="119">
+      <c r="E104" s="83">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="F104" s="97">
+      <c r="F104" s="71">
         <f t="shared" si="11"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="G104" s="97">
+      <c r="G104" s="71">
         <f t="shared" si="12"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="H104" s="97">
+      <c r="H104" s="71">
         <f t="shared" si="13"/>
         <v>3.5714285714285712</v>
       </c>
@@ -21057,19 +21055,19 @@
         <f t="shared" si="14"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="J104" s="170" cm="1">
+      <c r="J104" s="131" cm="1">
         <f t="array" ref="J104">SUMPRODUCT(TRANSPOSE($E104:$I104),C$16:C$20)/100</f>
         <v>52.857142857142847</v>
       </c>
-      <c r="K104" s="132" cm="1">
+      <c r="K104" s="93" cm="1">
         <f t="array" ref="K104">SUMPRODUCT(TRANSPOSE($E104:$I104),D$16:D$20)/100</f>
         <v>52.857142857142854</v>
       </c>
-      <c r="L104" s="132" cm="1">
+      <c r="L104" s="93" cm="1">
         <f t="array" ref="L104">SUMPRODUCT(TRANSPOSE($E104:$I104),E$16:E$20)/100</f>
         <v>61.428571428571431</v>
       </c>
-      <c r="M104" s="132" cm="1">
+      <c r="M104" s="93" cm="1">
         <f t="array" ref="M104">SUMPRODUCT(TRANSPOSE($E104:$I104),F$16:F$20)/100</f>
         <v>60.357142857142854</v>
       </c>
@@ -21086,19 +21084,19 @@
         <f t="shared" si="9"/>
         <v>290</v>
       </c>
-      <c r="E105" s="119">
+      <c r="E105" s="83">
         <f t="shared" si="10"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="F105" s="97">
+      <c r="F105" s="71">
         <f t="shared" si="11"/>
         <v>34.482758620689658</v>
       </c>
-      <c r="G105" s="97">
+      <c r="G105" s="71">
         <f t="shared" si="12"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="H105" s="97">
+      <c r="H105" s="71">
         <f t="shared" si="13"/>
         <v>3.4482758620689653</v>
       </c>
@@ -21106,19 +21104,19 @@
         <f t="shared" si="14"/>
         <v>13.793103448275861</v>
       </c>
-      <c r="J105" s="170" cm="1">
+      <c r="J105" s="131" cm="1">
         <f t="array" ref="J105">SUMPRODUCT(TRANSPOSE($E105:$I105),C$16:C$20)/100</f>
         <v>53.793103448275872</v>
       </c>
-      <c r="K105" s="132" cm="1">
+      <c r="K105" s="93" cm="1">
         <f t="array" ref="K105">SUMPRODUCT(TRANSPOSE($E105:$I105),D$16:D$20)/100</f>
         <v>54.482758620689658</v>
       </c>
-      <c r="L105" s="132" cm="1">
+      <c r="L105" s="93" cm="1">
         <f t="array" ref="L105">SUMPRODUCT(TRANSPOSE($E105:$I105),E$16:E$20)/100</f>
         <v>60.344827586206904</v>
       </c>
-      <c r="M105" s="132" cm="1">
+      <c r="M105" s="93" cm="1">
         <f t="array" ref="M105">SUMPRODUCT(TRANSPOSE($E105:$I105),F$16:F$20)/100</f>
         <v>58.96551724137931</v>
       </c>
@@ -21135,19 +21133,19 @@
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="E106" s="119">
+      <c r="E106" s="83">
         <f t="shared" si="10"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="F106" s="97">
+      <c r="F106" s="71">
         <f t="shared" si="11"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G106" s="97">
+      <c r="G106" s="71">
         <f t="shared" si="12"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="H106" s="97">
+      <c r="H106" s="71">
         <f t="shared" si="13"/>
         <v>3.3333333333333335</v>
       </c>
@@ -21155,19 +21153,19 @@
         <f t="shared" si="14"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="J106" s="170" cm="1">
+      <c r="J106" s="131" cm="1">
         <f t="array" ref="J106">SUMPRODUCT(TRANSPOSE($E106:$I106),C$16:C$20)/100</f>
         <v>54.666666666666657</v>
       </c>
-      <c r="K106" s="132" cm="1">
+      <c r="K106" s="93" cm="1">
         <f t="array" ref="K106">SUMPRODUCT(TRANSPOSE($E106:$I106),D$16:D$20)/100</f>
         <v>56</v>
       </c>
-      <c r="L106" s="132" cm="1">
+      <c r="L106" s="93" cm="1">
         <f t="array" ref="L106">SUMPRODUCT(TRANSPOSE($E106:$I106),E$16:E$20)/100</f>
         <v>59.333333333333329</v>
       </c>
-      <c r="M106" s="132" cm="1">
+      <c r="M106" s="93" cm="1">
         <f t="array" ref="M106">SUMPRODUCT(TRANSPOSE($E106:$I106),F$16:F$20)/100</f>
         <v>57.66666666666665</v>
       </c>
@@ -21184,19 +21182,19 @@
         <f t="shared" si="9"/>
         <v>310</v>
       </c>
-      <c r="E107" s="119">
+      <c r="E107" s="83">
         <f t="shared" si="10"/>
         <v>22.58064516129032</v>
       </c>
-      <c r="F107" s="97">
+      <c r="F107" s="71">
         <f t="shared" si="11"/>
         <v>32.258064516129032</v>
       </c>
-      <c r="G107" s="97">
+      <c r="G107" s="71">
         <f t="shared" si="12"/>
         <v>29.032258064516132</v>
       </c>
-      <c r="H107" s="97">
+      <c r="H107" s="71">
         <f t="shared" si="13"/>
         <v>3.225806451612903</v>
       </c>
@@ -21204,19 +21202,19 @@
         <f t="shared" si="14"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="J107" s="170" cm="1">
+      <c r="J107" s="131" cm="1">
         <f t="array" ref="J107">SUMPRODUCT(TRANSPOSE($E107:$I107),C$16:C$20)/100</f>
         <v>55.483870967741943</v>
       </c>
-      <c r="K107" s="132" cm="1">
+      <c r="K107" s="93" cm="1">
         <f t="array" ref="K107">SUMPRODUCT(TRANSPOSE($E107:$I107),D$16:D$20)/100</f>
         <v>57.41935483870968</v>
       </c>
-      <c r="L107" s="132" cm="1">
+      <c r="L107" s="93" cm="1">
         <f t="array" ref="L107">SUMPRODUCT(TRANSPOSE($E107:$I107),E$16:E$20)/100</f>
         <v>58.387096774193544</v>
       </c>
-      <c r="M107" s="132" cm="1">
+      <c r="M107" s="93" cm="1">
         <f t="array" ref="M107">SUMPRODUCT(TRANSPOSE($E107:$I107),F$16:F$20)/100</f>
         <v>56.451612903225808</v>
       </c>
@@ -21233,19 +21231,19 @@
         <f t="shared" si="9"/>
         <v>320</v>
       </c>
-      <c r="E108" s="120">
+      <c r="E108" s="84">
         <f t="shared" si="10"/>
         <v>21.875</v>
       </c>
-      <c r="F108" s="169">
+      <c r="F108" s="130">
         <f t="shared" si="11"/>
         <v>31.25</v>
       </c>
-      <c r="G108" s="169">
+      <c r="G108" s="130">
         <f t="shared" si="12"/>
         <v>31.25</v>
       </c>
-      <c r="H108" s="169">
+      <c r="H108" s="130">
         <f t="shared" si="13"/>
         <v>3.125</v>
       </c>
@@ -21253,19 +21251,19 @@
         <f t="shared" si="14"/>
         <v>12.5</v>
       </c>
-      <c r="J108" s="171" cm="1">
+      <c r="J108" s="132" cm="1">
         <f t="array" ref="J108">SUMPRODUCT(TRANSPOSE($E108:$I108),C$16:C$20)/100</f>
         <v>56.25</v>
       </c>
-      <c r="K108" s="133" cm="1">
+      <c r="K108" s="94" cm="1">
         <f t="array" ref="K108">SUMPRODUCT(TRANSPOSE($E108:$I108),D$16:D$20)/100</f>
         <v>58.75</v>
       </c>
-      <c r="L108" s="133" cm="1">
+      <c r="L108" s="94" cm="1">
         <f t="array" ref="L108">SUMPRODUCT(TRANSPOSE($E108:$I108),E$16:E$20)/100</f>
         <v>57.5</v>
       </c>
-      <c r="M108" s="133" cm="1">
+      <c r="M108" s="94" cm="1">
         <f t="array" ref="M108">SUMPRODUCT(TRANSPOSE($E108:$I108),F$16:F$20)/100</f>
         <v>55.3125</v>
       </c>
@@ -21594,56 +21592,56 @@
       <c r="B133" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="99" t="s">
+      <c r="E133" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="F133" s="100"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="100"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="99" t="s">
+      <c r="F133" s="137"/>
+      <c r="G133" s="137"/>
+      <c r="H133" s="137"/>
+      <c r="I133" s="138"/>
+      <c r="J133" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="K133" s="100"/>
-      <c r="L133" s="100"/>
-      <c r="M133" s="100"/>
-      <c r="N133" s="101"/>
+      <c r="K133" s="137"/>
+      <c r="L133" s="137"/>
+      <c r="M133" s="137"/>
+      <c r="N133" s="138"/>
     </row>
     <row r="134" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C134" s="172" t="s">
+      <c r="C134" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D134" s="143" t="s">
+      <c r="D134" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E134" s="173" t="s">
+      <c r="E134" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F134" s="174" t="s">
+      <c r="F134" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="G134" s="174" t="s">
+      <c r="G134" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="H134" s="174" t="s">
+      <c r="H134" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="I134" s="166" t="s">
+      <c r="I134" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="J134" s="173" t="s">
+      <c r="J134" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="K134" s="174" t="s">
+      <c r="K134" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="L134" s="174" t="s">
+      <c r="L134" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="M134" s="174" t="s">
+      <c r="M134" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="N134" s="166" t="s">
+      <c r="N134" s="127" t="s">
         <v>58</v>
       </c>
     </row>
@@ -21655,19 +21653,19 @@
         <f>SUM($C$7:$C$11)-$C$7+C135</f>
         <v>240</v>
       </c>
-      <c r="E135" s="119">
+      <c r="E135" s="83">
         <f>C135/D135*100</f>
         <v>0</v>
       </c>
-      <c r="F135" s="97">
+      <c r="F135" s="71">
         <f>$C$8/D135*100</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="G135" s="97">
+      <c r="G135" s="71">
         <f>$C$9/D135*100</f>
         <v>37.5</v>
       </c>
-      <c r="H135" s="97">
+      <c r="H135" s="71">
         <f>$C$10/D135*100</f>
         <v>4.1666666666666661</v>
       </c>
@@ -21675,19 +21673,19 @@
         <f>$C$11/D135*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="J135" s="170" cm="1">
+      <c r="J135" s="131" cm="1">
         <f t="array" ref="J135">SUMPRODUCT(TRANSPOSE($E135:$I135),C$16:C$20)/100</f>
         <v>71.666666666666671</v>
       </c>
-      <c r="K135" s="132" cm="1">
+      <c r="K135" s="93" cm="1">
         <f t="array" ref="K135">SUMPRODUCT(TRANSPOSE($E135:$I135),D$16:D$20)/100</f>
         <v>53.75</v>
       </c>
-      <c r="L135" s="132" cm="1">
+      <c r="L135" s="93" cm="1">
         <f t="array" ref="L135">SUMPRODUCT(TRANSPOSE($E135:$I135),E$16:E$20)/100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="M135" s="132" cm="1">
+      <c r="M135" s="93" cm="1">
         <f t="array" ref="M135">SUMPRODUCT(TRANSPOSE($E135:$I135),F$16:F$20)/100</f>
         <v>43.750000000000007</v>
       </c>
@@ -21704,19 +21702,19 @@
         <f t="shared" ref="D136:D145" si="15">SUM($C$7:$C$11)-$C$7+C136</f>
         <v>250</v>
       </c>
-      <c r="E136" s="119">
+      <c r="E136" s="83">
         <f t="shared" ref="E136:E145" si="16">C136/D136*100</f>
         <v>4</v>
       </c>
-      <c r="F136" s="97">
+      <c r="F136" s="71">
         <f t="shared" ref="F136:F145" si="17">$C$8/D136*100</f>
         <v>40</v>
       </c>
-      <c r="G136" s="97">
+      <c r="G136" s="71">
         <f t="shared" ref="G136:G145" si="18">$C$9/D136*100</f>
         <v>36</v>
       </c>
-      <c r="H136" s="97">
+      <c r="H136" s="71">
         <f t="shared" ref="H136:H145" si="19">$C$10/D136*100</f>
         <v>4</v>
       </c>
@@ -21724,19 +21722,19 @@
         <f t="shared" ref="I136:I145" si="20">$C$11/D136*100</f>
         <v>16</v>
       </c>
-      <c r="J136" s="170" cm="1">
+      <c r="J136" s="131" cm="1">
         <f t="array" ref="J136">SUMPRODUCT(TRANSPOSE($E136:$I136),C$16:C$20)/100</f>
         <v>68.8</v>
       </c>
-      <c r="K136" s="132" cm="1">
+      <c r="K136" s="93" cm="1">
         <f t="array" ref="K136">SUMPRODUCT(TRANSPOSE($E136:$I136),D$16:D$20)/100</f>
         <v>54.4</v>
       </c>
-      <c r="L136" s="132" cm="1">
+      <c r="L136" s="93" cm="1">
         <f t="array" ref="L136">SUMPRODUCT(TRANSPOSE($E136:$I136),E$16:E$20)/100</f>
         <v>65.2</v>
       </c>
-      <c r="M136" s="132" cm="1">
+      <c r="M136" s="93" cm="1">
         <f t="array" ref="M136">SUMPRODUCT(TRANSPOSE($E136:$I136),F$16:F$20)/100</f>
         <v>46</v>
       </c>
@@ -21753,19 +21751,19 @@
         <f t="shared" si="15"/>
         <v>260</v>
       </c>
-      <c r="E137" s="119">
+      <c r="E137" s="83">
         <f t="shared" si="16"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="F137" s="97">
+      <c r="F137" s="71">
         <f t="shared" si="17"/>
         <v>38.461538461538467</v>
       </c>
-      <c r="G137" s="97">
+      <c r="G137" s="71">
         <f t="shared" si="18"/>
         <v>34.615384615384613</v>
       </c>
-      <c r="H137" s="97">
+      <c r="H137" s="71">
         <f t="shared" si="19"/>
         <v>3.8461538461538463</v>
       </c>
@@ -21773,19 +21771,19 @@
         <f t="shared" si="20"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="J137" s="170" cm="1">
+      <c r="J137" s="131" cm="1">
         <f t="array" ref="J137">SUMPRODUCT(TRANSPOSE($E137:$I137),C$16:C$20)/100</f>
         <v>66.15384615384616</v>
       </c>
-      <c r="K137" s="132" cm="1">
+      <c r="K137" s="93" cm="1">
         <f t="array" ref="K137">SUMPRODUCT(TRANSPOSE($E137:$I137),D$16:D$20)/100</f>
         <v>55</v>
       </c>
-      <c r="L137" s="132" cm="1">
+      <c r="L137" s="93" cm="1">
         <f t="array" ref="L137">SUMPRODUCT(TRANSPOSE($E137:$I137),E$16:E$20)/100</f>
         <v>63.846153846153854</v>
       </c>
-      <c r="M137" s="132" cm="1">
+      <c r="M137" s="93" cm="1">
         <f t="array" ref="M137">SUMPRODUCT(TRANSPOSE($E137:$I137),F$16:F$20)/100</f>
         <v>48.076923076923087</v>
       </c>
@@ -21802,19 +21800,19 @@
         <f t="shared" si="15"/>
         <v>270</v>
       </c>
-      <c r="E138" s="119">
+      <c r="E138" s="83">
         <f t="shared" si="16"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="F138" s="97">
+      <c r="F138" s="71">
         <f t="shared" si="17"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="G138" s="97">
+      <c r="G138" s="71">
         <f t="shared" si="18"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="H138" s="97">
+      <c r="H138" s="71">
         <f t="shared" si="19"/>
         <v>3.7037037037037033</v>
       </c>
@@ -21822,19 +21820,19 @@
         <f t="shared" si="20"/>
         <v>14.814814814814813</v>
       </c>
-      <c r="J138" s="170" cm="1">
+      <c r="J138" s="131" cm="1">
         <f t="array" ref="J138">SUMPRODUCT(TRANSPOSE($E138:$I138),C$16:C$20)/100</f>
         <v>63.703703703703702</v>
       </c>
-      <c r="K138" s="132" cm="1">
+      <c r="K138" s="93" cm="1">
         <f t="array" ref="K138">SUMPRODUCT(TRANSPOSE($E138:$I138),D$16:D$20)/100</f>
         <v>55.55555555555555</v>
       </c>
-      <c r="L138" s="132" cm="1">
+      <c r="L138" s="93" cm="1">
         <f t="array" ref="L138">SUMPRODUCT(TRANSPOSE($E138:$I138),E$16:E$20)/100</f>
         <v>62.592592592592588</v>
       </c>
-      <c r="M138" s="132" cm="1">
+      <c r="M138" s="93" cm="1">
         <f t="array" ref="M138">SUMPRODUCT(TRANSPOSE($E138:$I138),F$16:F$20)/100</f>
         <v>50</v>
       </c>
@@ -21851,19 +21849,19 @@
         <f t="shared" si="15"/>
         <v>280</v>
       </c>
-      <c r="E139" s="119">
+      <c r="E139" s="83">
         <f t="shared" si="16"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="F139" s="97">
+      <c r="F139" s="71">
         <f t="shared" si="17"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="G139" s="97">
+      <c r="G139" s="71">
         <f t="shared" si="18"/>
         <v>32.142857142857146</v>
       </c>
-      <c r="H139" s="97">
+      <c r="H139" s="71">
         <f t="shared" si="19"/>
         <v>3.5714285714285712</v>
       </c>
@@ -21871,19 +21869,19 @@
         <f t="shared" si="20"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="J139" s="170" cm="1">
+      <c r="J139" s="131" cm="1">
         <f t="array" ref="J139">SUMPRODUCT(TRANSPOSE($E139:$I139),C$16:C$20)/100</f>
         <v>61.428571428571431</v>
       </c>
-      <c r="K139" s="132" cm="1">
+      <c r="K139" s="93" cm="1">
         <f t="array" ref="K139">SUMPRODUCT(TRANSPOSE($E139:$I139),D$16:D$20)/100</f>
         <v>56.071428571428569</v>
       </c>
-      <c r="L139" s="132" cm="1">
+      <c r="L139" s="93" cm="1">
         <f t="array" ref="L139">SUMPRODUCT(TRANSPOSE($E139:$I139),E$16:E$20)/100</f>
         <v>61.428571428571431</v>
       </c>
-      <c r="M139" s="132" cm="1">
+      <c r="M139" s="93" cm="1">
         <f t="array" ref="M139">SUMPRODUCT(TRANSPOSE($E139:$I139),F$16:F$20)/100</f>
         <v>51.785714285714292</v>
       </c>
@@ -21900,19 +21898,19 @@
         <f t="shared" si="15"/>
         <v>290</v>
       </c>
-      <c r="E140" s="119">
+      <c r="E140" s="83">
         <f t="shared" si="16"/>
         <v>17.241379310344829</v>
       </c>
-      <c r="F140" s="97">
+      <c r="F140" s="71">
         <f t="shared" si="17"/>
         <v>34.482758620689658</v>
       </c>
-      <c r="G140" s="97">
+      <c r="G140" s="71">
         <f t="shared" si="18"/>
         <v>31.03448275862069</v>
       </c>
-      <c r="H140" s="97">
+      <c r="H140" s="71">
         <f t="shared" si="19"/>
         <v>3.4482758620689653</v>
       </c>
@@ -21920,19 +21918,19 @@
         <f t="shared" si="20"/>
         <v>13.793103448275861</v>
       </c>
-      <c r="J140" s="170" cm="1">
+      <c r="J140" s="131" cm="1">
         <f t="array" ref="J140">SUMPRODUCT(TRANSPOSE($E140:$I140),C$16:C$20)/100</f>
         <v>59.310344827586214</v>
       </c>
-      <c r="K140" s="132" cm="1">
+      <c r="K140" s="93" cm="1">
         <f t="array" ref="K140">SUMPRODUCT(TRANSPOSE($E140:$I140),D$16:D$20)/100</f>
         <v>56.551724137931032</v>
       </c>
-      <c r="L140" s="132" cm="1">
+      <c r="L140" s="93" cm="1">
         <f t="array" ref="L140">SUMPRODUCT(TRANSPOSE($E140:$I140),E$16:E$20)/100</f>
         <v>60.344827586206904</v>
       </c>
-      <c r="M140" s="132" cm="1">
+      <c r="M140" s="93" cm="1">
         <f t="array" ref="M140">SUMPRODUCT(TRANSPOSE($E140:$I140),F$16:F$20)/100</f>
         <v>53.448275862068975</v>
       </c>
@@ -21949,19 +21947,19 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="E141" s="119">
+      <c r="E141" s="83">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="F141" s="97">
+      <c r="F141" s="71">
         <f t="shared" si="17"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G141" s="97">
+      <c r="G141" s="71">
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="H141" s="97">
+      <c r="H141" s="71">
         <f t="shared" si="19"/>
         <v>3.3333333333333335</v>
       </c>
@@ -21969,19 +21967,19 @@
         <f t="shared" si="20"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="J141" s="170" cm="1">
+      <c r="J141" s="131" cm="1">
         <f t="array" ref="J141">SUMPRODUCT(TRANSPOSE($E141:$I141),C$16:C$20)/100</f>
         <v>57.333333333333329</v>
       </c>
-      <c r="K141" s="132" cm="1">
+      <c r="K141" s="93" cm="1">
         <f t="array" ref="K141">SUMPRODUCT(TRANSPOSE($E141:$I141),D$16:D$20)/100</f>
         <v>57</v>
       </c>
-      <c r="L141" s="132" cm="1">
+      <c r="L141" s="93" cm="1">
         <f t="array" ref="L141">SUMPRODUCT(TRANSPOSE($E141:$I141),E$16:E$20)/100</f>
         <v>59.333333333333329</v>
       </c>
-      <c r="M141" s="132" cm="1">
+      <c r="M141" s="93" cm="1">
         <f t="array" ref="M141">SUMPRODUCT(TRANSPOSE($E141:$I141),F$16:F$20)/100</f>
         <v>54.999999999999993</v>
       </c>
@@ -21998,19 +21996,19 @@
         <f t="shared" si="15"/>
         <v>310</v>
       </c>
-      <c r="E142" s="119">
+      <c r="E142" s="83">
         <f t="shared" si="16"/>
         <v>22.58064516129032</v>
       </c>
-      <c r="F142" s="97">
+      <c r="F142" s="71">
         <f t="shared" si="17"/>
         <v>32.258064516129032</v>
       </c>
-      <c r="G142" s="97">
+      <c r="G142" s="71">
         <f t="shared" si="18"/>
         <v>29.032258064516132</v>
       </c>
-      <c r="H142" s="97">
+      <c r="H142" s="71">
         <f t="shared" si="19"/>
         <v>3.225806451612903</v>
       </c>
@@ -22018,19 +22016,19 @@
         <f t="shared" si="20"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="J142" s="170" cm="1">
+      <c r="J142" s="131" cm="1">
         <f t="array" ref="J142">SUMPRODUCT(TRANSPOSE($E142:$I142),C$16:C$20)/100</f>
         <v>55.483870967741943</v>
       </c>
-      <c r="K142" s="132" cm="1">
+      <c r="K142" s="93" cm="1">
         <f t="array" ref="K142">SUMPRODUCT(TRANSPOSE($E142:$I142),D$16:D$20)/100</f>
         <v>57.41935483870968</v>
       </c>
-      <c r="L142" s="132" cm="1">
+      <c r="L142" s="93" cm="1">
         <f t="array" ref="L142">SUMPRODUCT(TRANSPOSE($E142:$I142),E$16:E$20)/100</f>
         <v>58.387096774193544</v>
       </c>
-      <c r="M142" s="132" cm="1">
+      <c r="M142" s="93" cm="1">
         <f t="array" ref="M142">SUMPRODUCT(TRANSPOSE($E142:$I142),F$16:F$20)/100</f>
         <v>56.451612903225808</v>
       </c>
@@ -22047,19 +22045,19 @@
         <f t="shared" si="15"/>
         <v>320</v>
       </c>
-      <c r="E143" s="119">
+      <c r="E143" s="83">
         <f t="shared" si="16"/>
         <v>25</v>
       </c>
-      <c r="F143" s="97">
+      <c r="F143" s="71">
         <f t="shared" si="17"/>
         <v>31.25</v>
       </c>
-      <c r="G143" s="97">
+      <c r="G143" s="71">
         <f t="shared" si="18"/>
         <v>28.125</v>
       </c>
-      <c r="H143" s="97">
+      <c r="H143" s="71">
         <f t="shared" si="19"/>
         <v>3.125</v>
       </c>
@@ -22067,19 +22065,19 @@
         <f t="shared" si="20"/>
         <v>12.5</v>
       </c>
-      <c r="J143" s="170" cm="1">
+      <c r="J143" s="131" cm="1">
         <f t="array" ref="J143">SUMPRODUCT(TRANSPOSE($E143:$I143),C$16:C$20)/100</f>
         <v>53.75</v>
       </c>
-      <c r="K143" s="132" cm="1">
+      <c r="K143" s="93" cm="1">
         <f t="array" ref="K143">SUMPRODUCT(TRANSPOSE($E143:$I143),D$16:D$20)/100</f>
         <v>57.8125</v>
       </c>
-      <c r="L143" s="132" cm="1">
+      <c r="L143" s="93" cm="1">
         <f t="array" ref="L143">SUMPRODUCT(TRANSPOSE($E143:$I143),E$16:E$20)/100</f>
         <v>57.5</v>
       </c>
-      <c r="M143" s="132" cm="1">
+      <c r="M143" s="93" cm="1">
         <f t="array" ref="M143">SUMPRODUCT(TRANSPOSE($E143:$I143),F$16:F$20)/100</f>
         <v>57.8125</v>
       </c>
@@ -22096,19 +22094,19 @@
         <f t="shared" si="15"/>
         <v>330</v>
       </c>
-      <c r="E144" s="119">
+      <c r="E144" s="83">
         <f t="shared" si="16"/>
         <v>27.27272727272727</v>
       </c>
-      <c r="F144" s="97">
+      <c r="F144" s="71">
         <f t="shared" si="17"/>
         <v>30.303030303030305</v>
       </c>
-      <c r="G144" s="97">
+      <c r="G144" s="71">
         <f t="shared" si="18"/>
         <v>27.27272727272727</v>
       </c>
-      <c r="H144" s="97">
+      <c r="H144" s="71">
         <f t="shared" si="19"/>
         <v>3.0303030303030303</v>
       </c>
@@ -22116,19 +22114,19 @@
         <f t="shared" si="20"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="J144" s="170" cm="1">
+      <c r="J144" s="131" cm="1">
         <f t="array" ref="J144">SUMPRODUCT(TRANSPOSE($E144:$I144),C$16:C$20)/100</f>
         <v>52.121212121212118</v>
       </c>
-      <c r="K144" s="132" cm="1">
+      <c r="K144" s="93" cm="1">
         <f t="array" ref="K144">SUMPRODUCT(TRANSPOSE($E144:$I144),D$16:D$20)/100</f>
         <v>58.18181818181818</v>
       </c>
-      <c r="L144" s="132" cm="1">
+      <c r="L144" s="93" cm="1">
         <f t="array" ref="L144">SUMPRODUCT(TRANSPOSE($E144:$I144),E$16:E$20)/100</f>
         <v>56.666666666666657</v>
       </c>
-      <c r="M144" s="132" cm="1">
+      <c r="M144" s="93" cm="1">
         <f t="array" ref="M144">SUMPRODUCT(TRANSPOSE($E144:$I144),F$16:F$20)/100</f>
         <v>59.090909090909093</v>
       </c>
@@ -22145,19 +22143,19 @@
         <f t="shared" si="15"/>
         <v>340</v>
       </c>
-      <c r="E145" s="120">
+      <c r="E145" s="84">
         <f t="shared" si="16"/>
         <v>29.411764705882355</v>
       </c>
-      <c r="F145" s="169">
+      <c r="F145" s="130">
         <f t="shared" si="17"/>
         <v>29.411764705882355</v>
       </c>
-      <c r="G145" s="169">
+      <c r="G145" s="130">
         <f t="shared" si="18"/>
         <v>26.47058823529412</v>
       </c>
-      <c r="H145" s="169">
+      <c r="H145" s="130">
         <f t="shared" si="19"/>
         <v>2.9411764705882351</v>
       </c>
@@ -22165,19 +22163,19 @@
         <f t="shared" si="20"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="J145" s="171" cm="1">
+      <c r="J145" s="132" cm="1">
         <f t="array" ref="J145">SUMPRODUCT(TRANSPOSE($E145:$I145),C$16:C$20)/100</f>
         <v>50.588235294117652</v>
       </c>
-      <c r="K145" s="133" cm="1">
+      <c r="K145" s="94" cm="1">
         <f t="array" ref="K145">SUMPRODUCT(TRANSPOSE($E145:$I145),D$16:D$20)/100</f>
         <v>58.529411764705884</v>
       </c>
-      <c r="L145" s="133" cm="1">
+      <c r="L145" s="94" cm="1">
         <f t="array" ref="L145">SUMPRODUCT(TRANSPOSE($E145:$I145),E$16:E$20)/100</f>
         <v>55.882352941176471</v>
       </c>
-      <c r="M145" s="133" cm="1">
+      <c r="M145" s="94" cm="1">
         <f t="array" ref="M145">SUMPRODUCT(TRANSPOSE($E145:$I145),F$16:F$20)/100</f>
         <v>60.294117647058826</v>
       </c>
@@ -22262,12 +22260,12 @@
       <c r="E5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="144"/>
       <c r="J5" s="20" t="s">
         <v>74</v>
       </c>
@@ -22285,12 +22283,12 @@
       <c r="E6" s="25">
         <v>144.96841020839997</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
@@ -22308,12 +22306,12 @@
       <c r="E7" s="33">
         <v>145.15677819478265</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
       <c r="J7" s="36" t="s">
         <v>80</v>
       </c>
@@ -22331,12 +22329,12 @@
       <c r="E8" s="33">
         <v>145.36115421347824</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="36" t="s">
         <v>83</v>
       </c>
@@ -22354,12 +22352,12 @@
       <c r="E9" s="33">
         <v>144.69593451409091</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="36" t="s">
         <v>85</v>
       </c>
@@ -22377,12 +22375,12 @@
       <c r="E10" s="33">
         <v>144.97506995476192</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="36" t="s">
         <v>77</v>
       </c>
@@ -22400,12 +22398,12 @@
       <c r="E11" s="40">
         <v>145.07139516952378</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="44" t="s">
         <v>89</v>
       </c>
@@ -22630,34 +22628,34 @@
     </row>
     <row r="24" spans="2:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="81">
+      <c r="C25" s="159">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="161">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="70" t="s">
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="148" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="82"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="71"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="71"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="149"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="22" t="s">
@@ -22829,18 +22827,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22898,10 +22896,10 @@
       <c r="F7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="136"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
@@ -23036,39 +23034,39 @@
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="144" t="s">
+      <c r="F17" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="104" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="139">
+      <c r="B18" s="100">
         <v>0</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="70">
         <v>7</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="70">
         <v>9</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="70">
         <v>1</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="70">
         <v>7.1</v>
       </c>
       <c r="G18" s="36">
@@ -23076,22 +23074,22 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="140">
+      <c r="B19" s="101">
         <v>25</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="70">
         <f>MEDIAN(C18,C20)</f>
         <v>8.5</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="70">
         <f>MEDIAN(D18,D20)</f>
         <v>10.5</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="70">
         <f>MEDIAN(E18,E20)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="70">
         <f>MEDIAN(F18,F20)</f>
         <v>5.05</v>
       </c>
@@ -23100,19 +23098,19 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="140">
+      <c r="B20" s="101">
         <v>50</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="70">
         <v>10</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="70">
         <v>12</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="70">
         <v>3</v>
       </c>
-      <c r="F20" s="95">
+      <c r="F20" s="70">
         <v>3</v>
       </c>
       <c r="G20" s="36">
@@ -23120,22 +23118,22 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="140">
+      <c r="B21" s="101">
         <v>75</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="70">
         <f>MEDIAN(C20,C22)</f>
         <v>12</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="70">
         <f>MEDIAN(D20,D22)</f>
         <v>13.5</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="70">
         <f>MEDIAN(E20,E22)</f>
         <v>3.75</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="70">
         <f>MEDIAN(F20,F22)</f>
         <v>1.9500000000000002</v>
       </c>
@@ -23144,19 +23142,19 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="141">
+      <c r="B22" s="102">
         <v>100</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="95">
         <v>14</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="95">
         <v>15</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="95">
         <v>4.5</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="95">
         <v>0.9</v>
       </c>
       <c r="G22" s="44">
@@ -23313,8 +23311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB378B99-37B5-4CCF-952B-6B38A828707A}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -23340,22 +23338,22 @@
     </row>
     <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="106" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23366,19 +23364,19 @@
       <c r="C6" s="68">
         <v>50</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="109">
         <v>100</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="109">
         <v>100</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="109">
         <v>100</v>
       </c>
-      <c r="G6" s="148">
+      <c r="G6" s="109">
         <v>72</v>
       </c>
-      <c r="H6" s="127" cm="1">
+      <c r="H6" s="91" cm="1">
         <f t="array" ref="H6">SUMPRODUCT(TRANSPOSE(C6:G6),'Task3 - Value Funcs and Weights'!$G$86:$G$90)/100</f>
         <v>82.702702702702695</v>
       </c>
@@ -23390,16 +23388,16 @@
       <c r="C7" s="47">
         <v>100</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="70">
         <v>0</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="70">
         <v>25</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="70">
         <v>95</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="70">
         <v>87</v>
       </c>
       <c r="H7" s="51" cm="1">
@@ -23414,16 +23412,16 @@
       <c r="C8" s="47">
         <v>33</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="70">
         <v>67</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="70">
         <v>0</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="70">
         <v>0</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="70">
         <v>29</v>
       </c>
       <c r="H8" s="51" cm="1">
@@ -23438,16 +23436,16 @@
       <c r="C9" s="47">
         <v>17</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="70">
         <v>83</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="70">
         <v>25</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="70">
         <v>35</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="70">
         <v>100</v>
       </c>
       <c r="H9" s="51" cm="1">
@@ -23462,16 +23460,16 @@
       <c r="C10" s="47">
         <v>0</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="70">
         <v>83</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="70">
         <v>22</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="70">
         <v>98</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="70">
         <v>0</v>
       </c>
       <c r="H10" s="51" cm="1">
@@ -23486,16 +23484,16 @@
       <c r="C11" s="50">
         <v>33</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="95">
         <v>50</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="95">
         <v>25</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="95">
         <v>100</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="95">
         <v>33</v>
       </c>
       <c r="H11" s="52" cm="1">
@@ -23510,7 +23508,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="K13" s="95"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
@@ -23561,7 +23559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BB13A-ACA3-44AE-82D3-4FA3505CFCC3}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -23583,57 +23581,57 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="138"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="123">
+      <c r="E5" s="87">
         <v>0</v>
       </c>
-      <c r="F5" s="126">
+      <c r="F5" s="90">
         <f>E5+10</f>
         <v>10</v>
       </c>
-      <c r="G5" s="124">
+      <c r="G5" s="88">
         <f t="shared" ref="G5:O5" si="0">F5+10</f>
         <v>20</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="90">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I5" s="124">
+      <c r="I5" s="88">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J5" s="126">
+      <c r="J5" s="90">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K5" s="124">
+      <c r="K5" s="88">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L5" s="126">
+      <c r="L5" s="90">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="88">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="N5" s="126">
+      <c r="N5" s="90">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -23643,931 +23641,931 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="121">
+      <c r="D6" s="172"/>
+      <c r="E6" s="85">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + E$5</f>
         <v>270</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + F$5</f>
         <v>280</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="89">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + G$5</f>
         <v>290</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + H$5</f>
         <v>300</v>
       </c>
-      <c r="I6" s="125">
+      <c r="I6" s="89">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + I$5</f>
         <v>310</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J6" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + J$5</f>
         <v>320</v>
       </c>
-      <c r="K6" s="125">
+      <c r="K6" s="89">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + K$5</f>
         <v>330</v>
       </c>
-      <c r="L6" s="118">
+      <c r="L6" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + L$5</f>
         <v>340</v>
       </c>
-      <c r="M6" s="125">
+      <c r="M6" s="89">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + M$5</f>
         <v>350</v>
       </c>
-      <c r="N6" s="118">
+      <c r="N6" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + N$5</f>
         <v>360</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="74">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + O$5</f>
         <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="106"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="164"/>
+      <c r="C7" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="86">
         <f>E5/E6*100</f>
         <v>0</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="14">
         <f t="shared" ref="F7:O7" si="1">F5/F6*100</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="79">
         <f t="shared" si="1"/>
         <v>6.8965517241379306</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="79">
         <f t="shared" si="1"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
         <v>15.625</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="79">
         <f t="shared" si="1"/>
         <v>18.181818181818183</v>
       </c>
-      <c r="L7" s="96">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>20.588235294117645</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="79">
         <f t="shared" si="1"/>
         <v>22.857142857142858</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="14">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="75">
         <f t="shared" si="1"/>
         <v>27.027027027027028</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="106"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="94" t="s">
+      <c r="B8" s="164"/>
+      <c r="C8" s="170"/>
+      <c r="D8" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / E$6 * 100</f>
         <v>29.629629629629626</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / F$6 * 100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / G$6 * 100</f>
         <v>27.586206896551722</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / H$6 * 100</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / I$6 * 100</f>
         <v>25.806451612903224</v>
       </c>
-      <c r="J8" s="96">
+      <c r="J8" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / J$6 * 100</f>
         <v>25</v>
       </c>
-      <c r="K8" s="116">
+      <c r="K8" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / K$6 * 100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="L8" s="96">
+      <c r="L8" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / L$6 * 100</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="M8" s="116">
+      <c r="M8" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / M$6 * 100</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / N$6 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="O8" s="112">
+      <c r="O8" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / O$6 * 100</f>
         <v>21.621621621621621</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="106"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="94" t="s">
+      <c r="B9" s="164"/>
+      <c r="C9" s="170"/>
+      <c r="D9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / E$6 * 100</f>
         <v>29.629629629629626</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / F$6 * 100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / G$6 * 100</f>
         <v>27.586206896551722</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / H$6 * 100</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / I$6 * 100</f>
         <v>25.806451612903224</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J9" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / J$6 * 100</f>
         <v>25</v>
       </c>
-      <c r="K9" s="116">
+      <c r="K9" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / K$6 * 100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="L9" s="96">
+      <c r="L9" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / L$6 * 100</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="M9" s="116">
+      <c r="M9" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / M$6 * 100</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / N$6 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="O9" s="112">
+      <c r="O9" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / O$6 * 100</f>
         <v>21.621621621621621</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="106"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="94" t="s">
+      <c r="B10" s="164"/>
+      <c r="C10" s="170"/>
+      <c r="D10" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="119">
+      <c r="E10" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / E$6 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / F$6 * 100</f>
         <v>21.428571428571427</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / G$6 * 100</f>
         <v>20.689655172413794</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / H$6 * 100</f>
         <v>20</v>
       </c>
-      <c r="I10" s="116">
+      <c r="I10" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / I$6 * 100</f>
         <v>19.35483870967742</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / J$6 * 100</f>
         <v>18.75</v>
       </c>
-      <c r="K10" s="116">
+      <c r="K10" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / K$6 * 100</f>
         <v>18.181818181818183</v>
       </c>
-      <c r="L10" s="96">
+      <c r="L10" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / L$6 * 100</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / M$6 * 100</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="N10" s="96">
+      <c r="N10" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / N$6 * 100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="O10" s="112">
+      <c r="O10" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / O$6 * 100</f>
         <v>16.216216216216218</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="107"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="171"/>
       <c r="D11" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="84">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / E$6 * 100</f>
         <v>18.518518518518519</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / F$6 * 100</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / G$6 * 100</f>
         <v>17.241379310344829</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / H$6 * 100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / I$6 * 100</f>
         <v>16.129032258064516</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / J$6 * 100</f>
         <v>15.625</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / K$6 * 100</f>
         <v>15.151515151515152</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / L$6 * 100</f>
         <v>14.705882352941178</v>
       </c>
-      <c r="M11" s="117">
+      <c r="M11" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / M$6 * 100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="N11" s="98">
+      <c r="N11" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / N$6 * 100</f>
         <v>13.888888888888889</v>
       </c>
-      <c r="O11" s="113">
+      <c r="O11" s="77">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / O$6 * 100</f>
         <v>13.513513513513514</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="121">
+      <c r="D12" s="172"/>
+      <c r="E12" s="85">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + E$5</f>
         <v>290</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + F$5</f>
         <v>300</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + G$5</f>
         <v>310</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + H$5</f>
         <v>320</v>
       </c>
-      <c r="I12" s="118">
+      <c r="I12" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + I$5</f>
         <v>330</v>
       </c>
-      <c r="J12" s="103">
+      <c r="J12" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + J$5</f>
         <v>340</v>
       </c>
-      <c r="K12" s="118">
+      <c r="K12" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + K$5</f>
         <v>350</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + L$5</f>
         <v>360</v>
       </c>
-      <c r="M12" s="118">
+      <c r="M12" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + M$5</f>
         <v>370</v>
       </c>
-      <c r="N12" s="103">
+      <c r="N12" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + N$5</f>
         <v>380</v>
       </c>
-      <c r="O12" s="114">
+      <c r="O12" s="78">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + O$5</f>
         <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="106"/>
-      <c r="C13" s="108" t="s">
+      <c r="B13" s="164"/>
+      <c r="C13" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="119">
+      <c r="E13" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / E$12 * 100</f>
         <v>34.482758620689658</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / F$12 * 100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / G$12 * 100</f>
         <v>32.258064516129032</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / H$12 * 100</f>
         <v>31.25</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / I$12 * 100</f>
         <v>30.303030303030305</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / J$12 * 100</f>
         <v>29.411764705882355</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K13" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / K$12 * 100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="L13" s="96">
+      <c r="L13" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / L$12 * 100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="M13" s="116">
+      <c r="M13" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / M$12 * 100</f>
         <v>27.027027027027028</v>
       </c>
-      <c r="N13" s="96">
+      <c r="N13" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / N$12 * 100</f>
         <v>26.315789473684209</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / O$12 * 100</f>
         <v>25.641025641025639</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="106"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="94" t="s">
+      <c r="B14" s="164"/>
+      <c r="C14" s="170"/>
+      <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / E$12 * 100</f>
         <v>27.586206896551722</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / F$12 * 100</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="G14" s="116">
+      <c r="G14" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / G$12 * 100</f>
         <v>25.806451612903224</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / H$12 * 100</f>
         <v>25</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / I$12 * 100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="J14" s="96">
+      <c r="J14" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / J$12 * 100</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="K14" s="116">
+      <c r="K14" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / K$12 * 100</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="L14" s="96">
+      <c r="L14" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / L$12 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="M14" s="116">
+      <c r="M14" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / M$12 * 100</f>
         <v>21.621621621621621</v>
       </c>
-      <c r="N14" s="96">
+      <c r="N14" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / N$12 * 100</f>
         <v>21.052631578947366</v>
       </c>
-      <c r="O14" s="112">
+      <c r="O14" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / O$12 * 100</f>
         <v>20.512820512820511</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="106"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="94" t="s">
+      <c r="B15" s="164"/>
+      <c r="C15" s="170"/>
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="83">
         <f>E5/E12*100</f>
         <v>0</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:O15" si="2">F5/F12*100</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="80">
         <f t="shared" si="2"/>
         <v>6.4516129032258061</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="14">
         <f t="shared" si="2"/>
         <v>9.375</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="80">
         <f t="shared" si="2"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="J15" s="96">
+      <c r="J15" s="14">
         <f t="shared" si="2"/>
         <v>14.705882352941178</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="80">
         <f t="shared" si="2"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="L15" s="96">
+      <c r="L15" s="14">
         <f t="shared" si="2"/>
         <v>19.444444444444446</v>
       </c>
-      <c r="M15" s="116">
+      <c r="M15" s="80">
         <f t="shared" si="2"/>
         <v>21.621621621621621</v>
       </c>
-      <c r="N15" s="96">
+      <c r="N15" s="14">
         <f t="shared" si="2"/>
         <v>23.684210526315788</v>
       </c>
-      <c r="O15" s="112">
+      <c r="O15" s="76">
         <f t="shared" si="2"/>
         <v>25.641025641025639</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="106"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="94" t="s">
+      <c r="B16" s="164"/>
+      <c r="C16" s="170"/>
+      <c r="D16" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="119">
+      <c r="E16" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / E$12 * 100</f>
         <v>20.689655172413794</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / F$12 * 100</f>
         <v>20</v>
       </c>
-      <c r="G16" s="116">
+      <c r="G16" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / G$12 * 100</f>
         <v>19.35483870967742</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / H$12 * 100</f>
         <v>18.75</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / I$12 * 100</f>
         <v>18.181818181818183</v>
       </c>
-      <c r="J16" s="96">
+      <c r="J16" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / J$12 * 100</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="K16" s="116">
+      <c r="K16" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / K$12 * 100</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="L16" s="96">
+      <c r="L16" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / L$12 * 100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="M16" s="116">
+      <c r="M16" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / M$12 * 100</f>
         <v>16.216216216216218</v>
       </c>
-      <c r="N16" s="96">
+      <c r="N16" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / N$12 * 100</f>
         <v>15.789473684210526</v>
       </c>
-      <c r="O16" s="112">
+      <c r="O16" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / O$12 * 100</f>
         <v>15.384615384615385</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="107"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="171"/>
       <c r="D17" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="84">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / E$12 * 100</f>
         <v>17.241379310344829</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / F$12 * 100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / G$12 * 100</f>
         <v>16.129032258064516</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / H$12 * 100</f>
         <v>15.625</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / I$12 * 100</f>
         <v>15.151515151515152</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / J$12 * 100</f>
         <v>14.705882352941178</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / K$12 * 100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L17" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / L$12 * 100</f>
         <v>13.888888888888889</v>
       </c>
-      <c r="M17" s="117">
+      <c r="M17" s="81">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / M$12 * 100</f>
         <v>13.513513513513514</v>
       </c>
-      <c r="N17" s="98">
+      <c r="N17" s="72">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / N$12 * 100</f>
         <v>13.157894736842104</v>
       </c>
-      <c r="O17" s="113">
+      <c r="O17" s="77">
         <f>'Task3 - Value Funcs and Weights'!$F$90 / O$12 * 100</f>
         <v>12.820512820512819</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="121">
+      <c r="D18" s="172"/>
+      <c r="E18" s="85">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + E$5</f>
         <v>320</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + F$5</f>
         <v>330</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + G$5</f>
         <v>340</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + H$5</f>
         <v>350</v>
       </c>
-      <c r="I18" s="118">
+      <c r="I18" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + I$5</f>
         <v>360</v>
       </c>
-      <c r="J18" s="103">
+      <c r="J18" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + J$5</f>
         <v>370</v>
       </c>
-      <c r="K18" s="118">
+      <c r="K18" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + K$5</f>
         <v>380</v>
       </c>
-      <c r="L18" s="103">
+      <c r="L18" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + L$5</f>
         <v>390</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="82">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + M$5</f>
         <v>400</v>
       </c>
-      <c r="N18" s="103">
+      <c r="N18" s="73">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + N$5</f>
         <v>410</v>
       </c>
-      <c r="O18" s="114">
+      <c r="O18" s="78">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + O$5</f>
         <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="106"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="164"/>
+      <c r="C19" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / E$18 * 100</f>
         <v>31.25</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / F$18 * 100</f>
         <v>30.303030303030305</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / G$18 * 100</f>
         <v>29.411764705882355</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / H$18 * 100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / I$18 * 100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="J19" s="96">
+      <c r="J19" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / J$18 * 100</f>
         <v>27.027027027027028</v>
       </c>
-      <c r="K19" s="116">
+      <c r="K19" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / K$18 * 100</f>
         <v>26.315789473684209</v>
       </c>
-      <c r="L19" s="96">
+      <c r="L19" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / L$18 * 100</f>
         <v>25.641025641025639</v>
       </c>
-      <c r="M19" s="116">
+      <c r="M19" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / M$18 * 100</f>
         <v>25</v>
       </c>
-      <c r="N19" s="96">
+      <c r="N19" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / N$18 * 100</f>
         <v>24.390243902439025</v>
       </c>
-      <c r="O19" s="112">
+      <c r="O19" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$86 / O$18 * 100</f>
         <v>23.809523809523807</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="106"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="94" t="s">
+      <c r="B20" s="164"/>
+      <c r="C20" s="170"/>
+      <c r="D20" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / E$18 * 100</f>
         <v>25</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / F$18 * 100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / G$18 * 100</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / H$18 * 100</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="I20" s="116">
+      <c r="I20" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / I$18 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / J$18 * 100</f>
         <v>21.621621621621621</v>
       </c>
-      <c r="K20" s="116">
+      <c r="K20" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / K$18 * 100</f>
         <v>21.052631578947366</v>
       </c>
-      <c r="L20" s="96">
+      <c r="L20" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / L$18 * 100</f>
         <v>20.512820512820511</v>
       </c>
-      <c r="M20" s="116">
+      <c r="M20" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / M$18 * 100</f>
         <v>20</v>
       </c>
-      <c r="N20" s="96">
+      <c r="N20" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / N$18 * 100</f>
         <v>19.512195121951219</v>
       </c>
-      <c r="O20" s="112">
+      <c r="O20" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$87 / O$18 * 100</f>
         <v>19.047619047619047</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="94" t="s">
+      <c r="B21" s="164"/>
+      <c r="C21" s="170"/>
+      <c r="D21" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / E$18 * 100</f>
         <v>25</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / F$18 * 100</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="G21" s="116">
+      <c r="G21" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / G$18 * 100</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / H$18 * 100</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / I$18 * 100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J21" s="96">
+      <c r="J21" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / J$18 * 100</f>
         <v>21.621621621621621</v>
       </c>
-      <c r="K21" s="116">
+      <c r="K21" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / K$18 * 100</f>
         <v>21.052631578947366</v>
       </c>
-      <c r="L21" s="96">
+      <c r="L21" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / L$18 * 100</f>
         <v>20.512820512820511</v>
       </c>
-      <c r="M21" s="116">
+      <c r="M21" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / M$18 * 100</f>
         <v>20</v>
       </c>
-      <c r="N21" s="96">
+      <c r="N21" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / N$18 * 100</f>
         <v>19.512195121951219</v>
       </c>
-      <c r="O21" s="112">
+      <c r="O21" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$88 / O$18 * 100</f>
         <v>19.047619047619047</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="106"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="94" t="s">
+      <c r="B22" s="164"/>
+      <c r="C22" s="170"/>
+      <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="83">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / E$18 * 100</f>
         <v>18.75</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / F$18 * 100</f>
         <v>18.181818181818183</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / G$18 * 100</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / H$18 * 100</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / I$18 * 100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="J22" s="96">
+      <c r="J22" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / J$18 * 100</f>
         <v>16.216216216216218</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / K$18 * 100</f>
         <v>15.789473684210526</v>
       </c>
-      <c r="L22" s="96">
+      <c r="L22" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / L$18 * 100</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="M22" s="116">
+      <c r="M22" s="80">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / M$18 * 100</f>
         <v>15</v>
       </c>
-      <c r="N22" s="96">
+      <c r="N22" s="14">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / N$18 * 100</f>
         <v>14.634146341463413</v>
       </c>
-      <c r="O22" s="112">
+      <c r="O22" s="76">
         <f>'Task3 - Value Funcs and Weights'!$F$89 / O$18 * 100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="107"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="84">
         <f>E5/E18*100</f>
         <v>0</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="72">
         <f t="shared" ref="F23:O23" si="3">F5/F18*100</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="81">
         <f t="shared" si="3"/>
         <v>5.8823529411764701</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="72">
         <f t="shared" si="3"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="I23" s="117">
+      <c r="I23" s="81">
         <f t="shared" si="3"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="J23" s="98">
+      <c r="J23" s="72">
         <f t="shared" si="3"/>
         <v>13.513513513513514</v>
       </c>
-      <c r="K23" s="117">
+      <c r="K23" s="81">
         <f t="shared" si="3"/>
         <v>15.789473684210526</v>
       </c>
-      <c r="L23" s="98">
+      <c r="L23" s="72">
         <f t="shared" si="3"/>
         <v>17.948717948717949</v>
       </c>
-      <c r="M23" s="117">
+      <c r="M23" s="81">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N23" s="98">
+      <c r="N23" s="72">
         <f t="shared" si="3"/>
         <v>21.951219512195124</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="77">
         <f t="shared" si="3"/>
         <v>23.809523809523807</v>
       </c>
@@ -24578,57 +24576,57 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="101"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="138"/>
     </row>
     <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E27" s="50">
         <v>0</v>
       </c>
-      <c r="F27" s="134">
+      <c r="F27" s="95">
         <f>E27+10</f>
         <v>10</v>
       </c>
-      <c r="G27" s="134">
+      <c r="G27" s="95">
         <f t="shared" ref="G27:O27" si="4">F27+10</f>
         <v>20</v>
       </c>
-      <c r="H27" s="134">
+      <c r="H27" s="95">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I27" s="134">
+      <c r="I27" s="95">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="J27" s="134">
+      <c r="J27" s="95">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K27" s="134">
+      <c r="K27" s="95">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="L27" s="134">
+      <c r="L27" s="95">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="M27" s="134">
+      <c r="M27" s="95">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="N27" s="134">
+      <c r="N27" s="95">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
@@ -24638,103 +24636,103 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="166" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="131" cm="1">
+      <c r="E28" s="92" cm="1">
         <f t="array" ref="E28">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>94.814814814814824</v>
       </c>
-      <c r="F28" s="131" cm="1">
+      <c r="F28" s="92" cm="1">
         <f t="array" ref="F28">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>93.214285714285708</v>
       </c>
-      <c r="G28" s="131" cm="1">
+      <c r="G28" s="92" cm="1">
         <f t="array" ref="G28">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>91.724137931034477</v>
       </c>
-      <c r="H28" s="131" cm="1">
+      <c r="H28" s="92" cm="1">
         <f t="array" ref="H28">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>90.333333333333343</v>
       </c>
-      <c r="I28" s="131" cm="1">
+      <c r="I28" s="92" cm="1">
         <f t="array" ref="I28">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>89.032258064516142</v>
       </c>
-      <c r="J28" s="131" cm="1">
+      <c r="J28" s="92" cm="1">
         <f t="array" ref="J28">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>87.8125</v>
       </c>
-      <c r="K28" s="131" cm="1">
+      <c r="K28" s="92" cm="1">
         <f t="array" ref="K28">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>86.666666666666657</v>
       </c>
-      <c r="L28" s="131" cm="1">
+      <c r="L28" s="92" cm="1">
         <f t="array" ref="L28">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>85.588235294117638</v>
       </c>
-      <c r="M28" s="131" cm="1">
+      <c r="M28" s="92" cm="1">
         <f t="array" ref="M28">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>84.571428571428555</v>
       </c>
-      <c r="N28" s="131" cm="1">
+      <c r="N28" s="92" cm="1">
         <f t="array" ref="N28">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83.611111111111114</v>
       </c>
-      <c r="O28" s="127" cm="1">
+      <c r="O28" s="91" cm="1">
         <f t="array" ref="O28">SUMPRODUCT(O$7:O$11,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.702702702702695</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="106"/>
-      <c r="C29" s="129"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="167"/>
       <c r="D29" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="132" cm="1">
+      <c r="E29" s="93" cm="1">
         <f t="array" ref="E29">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>44.629629629629626</v>
       </c>
-      <c r="F29" s="132" cm="1">
+      <c r="F29" s="93" cm="1">
         <f t="array" ref="F29">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>46.607142857142854</v>
       </c>
-      <c r="G29" s="132" cm="1">
+      <c r="G29" s="93" cm="1">
         <f t="array" ref="G29">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>48.448275862068968</v>
       </c>
-      <c r="H29" s="132" cm="1">
+      <c r="H29" s="93" cm="1">
         <f t="array" ref="H29">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>50.166666666666671</v>
       </c>
-      <c r="I29" s="132" cm="1">
+      <c r="I29" s="93" cm="1">
         <f t="array" ref="I29">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>51.774193548387096</v>
       </c>
-      <c r="J29" s="132" cm="1">
+      <c r="J29" s="93" cm="1">
         <f t="array" ref="J29">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>53.28125</v>
       </c>
-      <c r="K29" s="132" cm="1">
+      <c r="K29" s="93" cm="1">
         <f t="array" ref="K29">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>54.696969696969703</v>
       </c>
-      <c r="L29" s="132" cm="1">
+      <c r="L29" s="93" cm="1">
         <f t="array" ref="L29">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>56.029411764705877</v>
       </c>
-      <c r="M29" s="132" cm="1">
+      <c r="M29" s="93" cm="1">
         <f t="array" ref="M29">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>57.285714285714292</v>
       </c>
-      <c r="N29" s="132" cm="1">
+      <c r="N29" s="93" cm="1">
         <f t="array" ref="N29">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>58.472222222222214</v>
       </c>
@@ -24744,48 +24742,48 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="106"/>
-      <c r="C30" s="129"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="167"/>
       <c r="D30" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="132" cm="1">
+      <c r="E30" s="93" cm="1">
         <f t="array" ref="E30">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>25.222222222222221</v>
       </c>
-      <c r="F30" s="132" cm="1">
+      <c r="F30" s="93" cm="1">
         <f t="array" ref="F30">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>25.5</v>
       </c>
-      <c r="G30" s="132" cm="1">
+      <c r="G30" s="93" cm="1">
         <f t="array" ref="G30">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>25.758620689655171</v>
       </c>
-      <c r="H30" s="132" cm="1">
+      <c r="H30" s="93" cm="1">
         <f t="array" ref="H30">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26</v>
       </c>
-      <c r="I30" s="132" cm="1">
+      <c r="I30" s="93" cm="1">
         <f t="array" ref="I30">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26.225806451612907</v>
       </c>
-      <c r="J30" s="132" cm="1">
+      <c r="J30" s="93" cm="1">
         <f t="array" ref="J30">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26.4375</v>
       </c>
-      <c r="K30" s="132" cm="1">
+      <c r="K30" s="93" cm="1">
         <f t="array" ref="K30">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26.636363636363637</v>
       </c>
-      <c r="L30" s="132" cm="1">
+      <c r="L30" s="93" cm="1">
         <f t="array" ref="L30">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26.823529411764703</v>
       </c>
-      <c r="M30" s="132" cm="1">
+      <c r="M30" s="93" cm="1">
         <f t="array" ref="M30">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27</v>
       </c>
-      <c r="N30" s="132" cm="1">
+      <c r="N30" s="93" cm="1">
         <f t="array" ref="N30">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.166666666666664</v>
       </c>
@@ -24795,48 +24793,48 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B31" s="106"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="167"/>
       <c r="D31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="132" cm="1">
+      <c r="E31" s="93" cm="1">
         <f t="array" ref="E31">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>58.296296296296298</v>
       </c>
-      <c r="F31" s="132" cm="1">
+      <c r="F31" s="93" cm="1">
         <f t="array" ref="F31">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>56.821428571428569</v>
       </c>
-      <c r="G31" s="132" cm="1">
+      <c r="G31" s="93" cm="1">
         <f t="array" ref="G31">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>55.448275862068968</v>
       </c>
-      <c r="H31" s="132" cm="1">
+      <c r="H31" s="93" cm="1">
         <f t="array" ref="H31">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>54.166666666666657</v>
       </c>
-      <c r="I31" s="132" cm="1">
+      <c r="I31" s="93" cm="1">
         <f t="array" ref="I31">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>52.967741935483872</v>
       </c>
-      <c r="J31" s="132" cm="1">
+      <c r="J31" s="93" cm="1">
         <f t="array" ref="J31">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>51.84375</v>
       </c>
-      <c r="K31" s="132" cm="1">
+      <c r="K31" s="93" cm="1">
         <f t="array" ref="K31">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>50.787878787878789</v>
       </c>
-      <c r="L31" s="132" cm="1">
+      <c r="L31" s="93" cm="1">
         <f t="array" ref="L31">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>49.794117647058819</v>
       </c>
-      <c r="M31" s="132" cm="1">
+      <c r="M31" s="93" cm="1">
         <f t="array" ref="M31">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>48.857142857142861</v>
       </c>
-      <c r="N31" s="132" cm="1">
+      <c r="N31" s="93" cm="1">
         <f t="array" ref="N31">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>47.972222222222214</v>
       </c>
@@ -24846,48 +24844,48 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="106"/>
-      <c r="C32" s="129"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="167"/>
       <c r="D32" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="132" cm="1">
+      <c r="E32" s="93" cm="1">
         <f t="array" ref="E32">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>52.888888888888886</v>
       </c>
-      <c r="F32" s="132" cm="1">
+      <c r="F32" s="93" cm="1">
         <f t="array" ref="F32">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>51</v>
       </c>
-      <c r="G32" s="132" cm="1">
+      <c r="G32" s="93" cm="1">
         <f t="array" ref="G32">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>49.241379310344826</v>
       </c>
-      <c r="H32" s="132" cm="1">
+      <c r="H32" s="93" cm="1">
         <f t="array" ref="H32">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>47.6</v>
       </c>
-      <c r="I32" s="132" cm="1">
+      <c r="I32" s="93" cm="1">
         <f t="array" ref="I32">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>46.064516129032263</v>
       </c>
-      <c r="J32" s="132" cm="1">
+      <c r="J32" s="93" cm="1">
         <f t="array" ref="J32">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>44.625</v>
       </c>
-      <c r="K32" s="132" cm="1">
+      <c r="K32" s="93" cm="1">
         <f t="array" ref="K32">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>43.27272727272728</v>
       </c>
-      <c r="L32" s="132" cm="1">
+      <c r="L32" s="93" cm="1">
         <f t="array" ref="L32">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>42</v>
       </c>
-      <c r="M32" s="132" cm="1">
+      <c r="M32" s="93" cm="1">
         <f t="array" ref="M32">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="N32" s="132" cm="1">
+      <c r="N32" s="93" cm="1">
         <f t="array" ref="N32">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>39.666666666666657</v>
       </c>
@@ -24897,48 +24895,48 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="107"/>
-      <c r="C33" s="130"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="133" cm="1">
+      <c r="E33" s="94" cm="1">
         <f t="array" ref="E33">SUMPRODUCT(E$7:E$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>50.55555555555555</v>
       </c>
-      <c r="F33" s="133" cm="1">
+      <c r="F33" s="94" cm="1">
         <f t="array" ref="F33">SUMPRODUCT(F$7:F$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>49.928571428571423</v>
       </c>
-      <c r="G33" s="133" cm="1">
+      <c r="G33" s="94" cm="1">
         <f t="array" ref="G33">SUMPRODUCT(G$7:G$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>49.34482758620689</v>
       </c>
-      <c r="H33" s="133" cm="1">
+      <c r="H33" s="94" cm="1">
         <f t="array" ref="H33">SUMPRODUCT(H$7:H$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>48.8</v>
       </c>
-      <c r="I33" s="133" cm="1">
+      <c r="I33" s="94" cm="1">
         <f t="array" ref="I33">SUMPRODUCT(I$7:I$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>48.290322580645153</v>
       </c>
-      <c r="J33" s="133" cm="1">
+      <c r="J33" s="94" cm="1">
         <f t="array" ref="J33">SUMPRODUCT(J$7:J$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47.8125</v>
       </c>
-      <c r="K33" s="133" cm="1">
+      <c r="K33" s="94" cm="1">
         <f t="array" ref="K33">SUMPRODUCT(K$7:K$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47.36363636363636</v>
       </c>
-      <c r="L33" s="133" cm="1">
+      <c r="L33" s="94" cm="1">
         <f t="array" ref="L33">SUMPRODUCT(L$7:L$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.941176470588225</v>
       </c>
-      <c r="M33" s="133" cm="1">
+      <c r="M33" s="94" cm="1">
         <f t="array" ref="M33">SUMPRODUCT(M$7:M$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.542857142857144</v>
       </c>
-      <c r="N33" s="133" cm="1">
+      <c r="N33" s="94" cm="1">
         <f t="array" ref="N33">SUMPRODUCT(N$7:N$11,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.166666666666657</v>
       </c>
@@ -24948,103 +24946,103 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="166" t="s">
         <v>152</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="131" cm="1">
+      <c r="E34" s="92" cm="1">
         <f t="array" ref="E34">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>77.931034482758619</v>
       </c>
-      <c r="F34" s="131" cm="1">
+      <c r="F34" s="92" cm="1">
         <f t="array" ref="F34">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>78.666666666666671</v>
       </c>
-      <c r="G34" s="131" cm="1">
+      <c r="G34" s="92" cm="1">
         <f t="array" ref="G34">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>79.354838709677409</v>
       </c>
-      <c r="H34" s="131" cm="1">
+      <c r="H34" s="92" cm="1">
         <f t="array" ref="H34">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>80</v>
       </c>
-      <c r="I34" s="131" cm="1">
+      <c r="I34" s="92" cm="1">
         <f t="array" ref="I34">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>80.606060606060595</v>
       </c>
-      <c r="J34" s="131" cm="1">
+      <c r="J34" s="92" cm="1">
         <f t="array" ref="J34">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>81.176470588235304</v>
       </c>
-      <c r="K34" s="131" cm="1">
+      <c r="K34" s="92" cm="1">
         <f t="array" ref="K34">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>81.714285714285722</v>
       </c>
-      <c r="L34" s="131" cm="1">
+      <c r="L34" s="92" cm="1">
         <f t="array" ref="L34">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.222222222222229</v>
       </c>
-      <c r="M34" s="131" cm="1">
+      <c r="M34" s="92" cm="1">
         <f t="array" ref="M34">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.702702702702695</v>
       </c>
-      <c r="N34" s="131" cm="1">
+      <c r="N34" s="92" cm="1">
         <f t="array" ref="N34">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83.157894736842096</v>
       </c>
-      <c r="O34" s="127" cm="1">
+      <c r="O34" s="91" cm="1">
         <f t="array" ref="O34">SUMPRODUCT(O$13:O$17,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83.589743589743591</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B35" s="106"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="167"/>
       <c r="D35" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="132" cm="1">
+      <c r="E35" s="93" cm="1">
         <f t="array" ref="E35">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>69.137931034482762</v>
       </c>
-      <c r="F35" s="132" cm="1">
+      <c r="F35" s="93" cm="1">
         <f t="array" ref="F35">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>67.666666666666657</v>
       </c>
-      <c r="G35" s="132" cm="1">
+      <c r="G35" s="93" cm="1">
         <f t="array" ref="G35">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>66.290322580645167</v>
       </c>
-      <c r="H35" s="132" cm="1">
+      <c r="H35" s="93" cm="1">
         <f t="array" ref="H35">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>65</v>
       </c>
-      <c r="I35" s="132" cm="1">
+      <c r="I35" s="93" cm="1">
         <f t="array" ref="I35">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>63.787878787878789</v>
       </c>
-      <c r="J35" s="132" cm="1">
+      <c r="J35" s="93" cm="1">
         <f t="array" ref="J35">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>62.64705882352942</v>
       </c>
-      <c r="K35" s="132" cm="1">
+      <c r="K35" s="93" cm="1">
         <f t="array" ref="K35">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>61.571428571428569</v>
       </c>
-      <c r="L35" s="132" cm="1">
+      <c r="L35" s="93" cm="1">
         <f t="array" ref="L35">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>60.555555555555557</v>
       </c>
-      <c r="M35" s="132" cm="1">
+      <c r="M35" s="93" cm="1">
         <f t="array" ref="M35">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>59.594594594594604</v>
       </c>
-      <c r="N35" s="132" cm="1">
+      <c r="N35" s="93" cm="1">
         <f t="array" ref="N35">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>58.68421052631578</v>
       </c>
@@ -25054,48 +25052,48 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B36" s="106"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="167"/>
       <c r="D36" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="132" cm="1">
+      <c r="E36" s="93" cm="1">
         <f t="array" ref="E36">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>34.862068965517238</v>
       </c>
-      <c r="F36" s="132" cm="1">
+      <c r="F36" s="93" cm="1">
         <f t="array" ref="F36">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="G36" s="132" cm="1">
+      <c r="G36" s="93" cm="1">
         <f t="array" ref="G36">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>32.612903225806448</v>
       </c>
-      <c r="H36" s="132" cm="1">
+      <c r="H36" s="93" cm="1">
         <f t="array" ref="H36">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>31.59375</v>
       </c>
-      <c r="I36" s="132" cm="1">
+      <c r="I36" s="93" cm="1">
         <f t="array" ref="I36">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>30.636363636363637</v>
       </c>
-      <c r="J36" s="132" cm="1">
+      <c r="J36" s="93" cm="1">
         <f t="array" ref="J36">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>29.735294117647058</v>
       </c>
-      <c r="K36" s="132" cm="1">
+      <c r="K36" s="93" cm="1">
         <f t="array" ref="K36">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>28.885714285714286</v>
       </c>
-      <c r="L36" s="132" cm="1">
+      <c r="L36" s="93" cm="1">
         <f t="array" ref="L36">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>28.083333333333336</v>
       </c>
-      <c r="M36" s="132" cm="1">
+      <c r="M36" s="93" cm="1">
         <f t="array" ref="M36">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.324324324324326</v>
       </c>
-      <c r="N36" s="132" cm="1">
+      <c r="N36" s="93" cm="1">
         <f t="array" ref="N36">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>26.605263157894733</v>
       </c>
@@ -25105,48 +25103,48 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="106"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="132" cm="1">
+      <c r="E37" s="93" cm="1">
         <f t="array" ref="E37">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>53.241379310344826</v>
       </c>
-      <c r="F37" s="132" cm="1">
+      <c r="F37" s="93" cm="1">
         <f t="array" ref="F37">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>52.3</v>
       </c>
-      <c r="G37" s="132" cm="1">
+      <c r="G37" s="93" cm="1">
         <f t="array" ref="G37">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>51.41935483870968</v>
       </c>
-      <c r="H37" s="132" cm="1">
+      <c r="H37" s="93" cm="1">
         <f t="array" ref="H37">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>50.59375</v>
       </c>
-      <c r="I37" s="132" cm="1">
+      <c r="I37" s="93" cm="1">
         <f t="array" ref="I37">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>49.81818181818182</v>
       </c>
-      <c r="J37" s="132" cm="1">
+      <c r="J37" s="93" cm="1">
         <f t="array" ref="J37">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>49.088235294117652</v>
       </c>
-      <c r="K37" s="132" cm="1">
+      <c r="K37" s="93" cm="1">
         <f t="array" ref="K37">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>48.4</v>
       </c>
-      <c r="L37" s="132" cm="1">
+      <c r="L37" s="93" cm="1">
         <f t="array" ref="L37">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>47.75</v>
       </c>
-      <c r="M37" s="132" cm="1">
+      <c r="M37" s="93" cm="1">
         <f t="array" ref="M37">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>47.13513513513513</v>
       </c>
-      <c r="N37" s="132" cm="1">
+      <c r="N37" s="93" cm="1">
         <f t="array" ref="N37">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>46.55263157894737</v>
       </c>
@@ -25156,48 +25154,48 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B38" s="106"/>
-      <c r="C38" s="129"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="167"/>
       <c r="D38" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="132" cm="1">
+      <c r="E38" s="93" cm="1">
         <f t="array" ref="E38">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>43.172413793103452</v>
       </c>
-      <c r="F38" s="132" cm="1">
+      <c r="F38" s="93" cm="1">
         <f t="array" ref="F38">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>42.466666666666669</v>
       </c>
-      <c r="G38" s="132" cm="1">
+      <c r="G38" s="93" cm="1">
         <f t="array" ref="G38">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>41.806451612903231</v>
       </c>
-      <c r="H38" s="132" cm="1">
+      <c r="H38" s="93" cm="1">
         <f t="array" ref="H38">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>41.1875</v>
       </c>
-      <c r="I38" s="132" cm="1">
+      <c r="I38" s="93" cm="1">
         <f t="array" ref="I38">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>40.606060606060602</v>
       </c>
-      <c r="J38" s="132" cm="1">
+      <c r="J38" s="93" cm="1">
         <f t="array" ref="J38">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>40.058823529411768</v>
       </c>
-      <c r="K38" s="132" cm="1">
+      <c r="K38" s="93" cm="1">
         <f t="array" ref="K38">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>39.542857142857144</v>
       </c>
-      <c r="L38" s="132" cm="1">
+      <c r="L38" s="93" cm="1">
         <f t="array" ref="L38">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>39.05555555555555</v>
       </c>
-      <c r="M38" s="132" cm="1">
+      <c r="M38" s="93" cm="1">
         <f t="array" ref="M38">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>38.594594594594604</v>
       </c>
-      <c r="N38" s="132" cm="1">
+      <c r="N38" s="93" cm="1">
         <f t="array" ref="N38">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>38.157894736842103</v>
       </c>
@@ -25207,48 +25205,48 @@
       </c>
     </row>
     <row r="39" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="107"/>
-      <c r="C39" s="130"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="133" cm="1">
+      <c r="E39" s="94" cm="1">
         <f t="array" ref="E39">SUMPRODUCT(E$13:E$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>51.551724137931039</v>
       </c>
-      <c r="F39" s="133" cm="1">
+      <c r="F39" s="94" cm="1">
         <f t="array" ref="F39">SUMPRODUCT(F$13:F$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>50.666666666666657</v>
       </c>
-      <c r="G39" s="133" cm="1">
+      <c r="G39" s="94" cm="1">
         <f t="array" ref="G39">SUMPRODUCT(G$13:G$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>49.838709677419359</v>
       </c>
-      <c r="H39" s="133" cm="1">
+      <c r="H39" s="94" cm="1">
         <f t="array" ref="H39">SUMPRODUCT(H$13:H$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>49.0625</v>
       </c>
-      <c r="I39" s="133" cm="1">
+      <c r="I39" s="94" cm="1">
         <f t="array" ref="I39">SUMPRODUCT(I$13:I$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>48.333333333333329</v>
       </c>
-      <c r="J39" s="133" cm="1">
+      <c r="J39" s="94" cm="1">
         <f t="array" ref="J39">SUMPRODUCT(J$13:J$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47.647058823529406</v>
       </c>
-      <c r="K39" s="133" cm="1">
+      <c r="K39" s="94" cm="1">
         <f t="array" ref="K39">SUMPRODUCT(K$13:K$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47</v>
       </c>
-      <c r="L39" s="133" cm="1">
+      <c r="L39" s="94" cm="1">
         <f t="array" ref="L39">SUMPRODUCT(L$13:L$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.388888888888886</v>
       </c>
-      <c r="M39" s="133" cm="1">
+      <c r="M39" s="94" cm="1">
         <f t="array" ref="M39">SUMPRODUCT(M$13:M$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>45.810810810810807</v>
       </c>
-      <c r="N39" s="133" cm="1">
+      <c r="N39" s="94" cm="1">
         <f t="array" ref="N39">SUMPRODUCT(N$13:N$17,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>45.263157894736835</v>
       </c>
@@ -25258,103 +25256,103 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="166" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="131" cm="1">
+      <c r="E40" s="92" cm="1">
         <f t="array" ref="E40">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>84.375</v>
       </c>
-      <c r="F40" s="131" cm="1">
+      <c r="F40" s="92" cm="1">
         <f t="array" ref="F40">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>84</v>
       </c>
-      <c r="G40" s="131" cm="1">
+      <c r="G40" s="92" cm="1">
         <f t="array" ref="G40">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83.647058823529406</v>
       </c>
-      <c r="H40" s="131" cm="1">
+      <c r="H40" s="92" cm="1">
         <f t="array" ref="H40">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83.314285714285703</v>
       </c>
-      <c r="I40" s="131" cm="1">
+      <c r="I40" s="92" cm="1">
         <f t="array" ref="I40">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>83</v>
       </c>
-      <c r="J40" s="131" cm="1">
+      <c r="J40" s="92" cm="1">
         <f t="array" ref="J40">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.702702702702695</v>
       </c>
-      <c r="K40" s="131" cm="1">
+      <c r="K40" s="92" cm="1">
         <f t="array" ref="K40">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.421052631578931</v>
       </c>
-      <c r="L40" s="131" cm="1">
+      <c r="L40" s="92" cm="1">
         <f t="array" ref="L40">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>82.153846153846175</v>
       </c>
-      <c r="M40" s="131" cm="1">
+      <c r="M40" s="92" cm="1">
         <f t="array" ref="M40">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>81.900000000000006</v>
       </c>
-      <c r="N40" s="131" cm="1">
+      <c r="N40" s="92" cm="1">
         <f t="array" ref="N40">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>81.658536585365852</v>
       </c>
-      <c r="O40" s="127" cm="1">
+      <c r="O40" s="91" cm="1">
         <f t="array" ref="O40">SUMPRODUCT(O$19:O$23,TRANSPOSE('Task3 - Analysis'!$C6:$G6))/100</f>
         <v>81.428571428571416</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B41" s="106"/>
-      <c r="C41" s="129"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="167"/>
       <c r="D41" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="132" cm="1">
+      <c r="E41" s="93" cm="1">
         <f t="array" ref="E41">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>55.3125</v>
       </c>
-      <c r="F41" s="132" cm="1">
+      <c r="F41" s="93" cm="1">
         <f t="array" ref="F41">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>56.27272727272728</v>
       </c>
-      <c r="G41" s="132" cm="1">
+      <c r="G41" s="93" cm="1">
         <f t="array" ref="G41">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>57.176470588235297</v>
       </c>
-      <c r="H41" s="132" cm="1">
+      <c r="H41" s="93" cm="1">
         <f t="array" ref="H41">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>58.028571428571425</v>
       </c>
-      <c r="I41" s="132" cm="1">
+      <c r="I41" s="93" cm="1">
         <f t="array" ref="I41">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>58.833333333333329</v>
       </c>
-      <c r="J41" s="132" cm="1">
+      <c r="J41" s="93" cm="1">
         <f t="array" ref="J41">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>59.594594594594604</v>
       </c>
-      <c r="K41" s="132" cm="1">
+      <c r="K41" s="93" cm="1">
         <f t="array" ref="K41">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>60.315789473684205</v>
       </c>
-      <c r="L41" s="132" cm="1">
+      <c r="L41" s="93" cm="1">
         <f t="array" ref="L41">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>61</v>
       </c>
-      <c r="M41" s="132" cm="1">
+      <c r="M41" s="93" cm="1">
         <f t="array" ref="M41">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>61.65</v>
       </c>
-      <c r="N41" s="132" cm="1">
+      <c r="N41" s="93" cm="1">
         <f t="array" ref="N41">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C7:$G7))/100</f>
         <v>62.268292682926834</v>
       </c>
@@ -25364,48 +25362,48 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B42" s="106"/>
-      <c r="C42" s="129"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="132" cm="1">
+      <c r="E42" s="93" cm="1">
         <f t="array" ref="E42">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.0625</v>
       </c>
-      <c r="F42" s="132" cm="1">
+      <c r="F42" s="93" cm="1">
         <f t="array" ref="F42">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.121212121212121</v>
       </c>
-      <c r="G42" s="132" cm="1">
+      <c r="G42" s="93" cm="1">
         <f t="array" ref="G42">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.176470588235293</v>
       </c>
-      <c r="H42" s="132" cm="1">
+      <c r="H42" s="93" cm="1">
         <f t="array" ref="H42">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.228571428571428</v>
       </c>
-      <c r="I42" s="132" cm="1">
+      <c r="I42" s="93" cm="1">
         <f t="array" ref="I42">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.277777777777779</v>
       </c>
-      <c r="J42" s="132" cm="1">
+      <c r="J42" s="93" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.324324324324326</v>
       </c>
-      <c r="K42" s="132" cm="1">
+      <c r="K42" s="93" cm="1">
         <f t="array" ref="K42">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.368421052631579</v>
       </c>
-      <c r="L42" s="132" cm="1">
+      <c r="L42" s="93" cm="1">
         <f t="array" ref="L42">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.410256410256405</v>
       </c>
-      <c r="M42" s="132" cm="1">
+      <c r="M42" s="93" cm="1">
         <f t="array" ref="M42">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.45</v>
       </c>
-      <c r="N42" s="132" cm="1">
+      <c r="N42" s="93" cm="1">
         <f t="array" ref="N42">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C8:$G8))/100</f>
         <v>27.487804878048777</v>
       </c>
@@ -25415,48 +25413,48 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B43" s="106"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="132" cm="1">
+      <c r="E43" s="93" cm="1">
         <f t="array" ref="E43">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>38.875</v>
       </c>
-      <c r="F43" s="132" cm="1">
+      <c r="F43" s="93" cm="1">
         <f t="array" ref="F43">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>40.727272727272727</v>
       </c>
-      <c r="G43" s="132" cm="1">
+      <c r="G43" s="93" cm="1">
         <f t="array" ref="G43">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>42.470588235294116</v>
       </c>
-      <c r="H43" s="132" cm="1">
+      <c r="H43" s="93" cm="1">
         <f t="array" ref="H43">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>44.114285714285714</v>
       </c>
-      <c r="I43" s="132" cm="1">
+      <c r="I43" s="93" cm="1">
         <f t="array" ref="I43">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>45.666666666666671</v>
       </c>
-      <c r="J43" s="132" cm="1">
+      <c r="J43" s="93" cm="1">
         <f t="array" ref="J43">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>47.13513513513513</v>
       </c>
-      <c r="K43" s="132" cm="1">
+      <c r="K43" s="93" cm="1">
         <f t="array" ref="K43">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>48.526315789473685</v>
       </c>
-      <c r="L43" s="132" cm="1">
+      <c r="L43" s="93" cm="1">
         <f t="array" ref="L43">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>49.846153846153847</v>
       </c>
-      <c r="M43" s="132" cm="1">
+      <c r="M43" s="93" cm="1">
         <f t="array" ref="M43">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>51.1</v>
       </c>
-      <c r="N43" s="132" cm="1">
+      <c r="N43" s="93" cm="1">
         <f t="array" ref="N43">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C9:$G9))/100</f>
         <v>52.292682926829272</v>
       </c>
@@ -25466,48 +25464,48 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="106"/>
-      <c r="C44" s="129"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="132" cm="1">
+      <c r="E44" s="93" cm="1">
         <f t="array" ref="E44">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>44.625</v>
       </c>
-      <c r="F44" s="132" cm="1">
+      <c r="F44" s="93" cm="1">
         <f t="array" ref="F44">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>43.27272727272728</v>
       </c>
-      <c r="G44" s="132" cm="1">
+      <c r="G44" s="93" cm="1">
         <f t="array" ref="G44">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>42</v>
       </c>
-      <c r="H44" s="132" cm="1">
+      <c r="H44" s="93" cm="1">
         <f t="array" ref="H44">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I44" s="132" cm="1">
+      <c r="I44" s="93" cm="1">
         <f t="array" ref="I44">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>39.666666666666657</v>
       </c>
-      <c r="J44" s="132" cm="1">
+      <c r="J44" s="93" cm="1">
         <f t="array" ref="J44">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>38.594594594594604</v>
       </c>
-      <c r="K44" s="132" cm="1">
+      <c r="K44" s="93" cm="1">
         <f t="array" ref="K44">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>37.578947368421048</v>
       </c>
-      <c r="L44" s="132" cm="1">
+      <c r="L44" s="93" cm="1">
         <f t="array" ref="L44">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>36.615384615384613</v>
       </c>
-      <c r="M44" s="132" cm="1">
+      <c r="M44" s="93" cm="1">
         <f t="array" ref="M44">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="N44" s="132" cm="1">
+      <c r="N44" s="93" cm="1">
         <f t="array" ref="N44">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C10:$G10))/100</f>
         <v>34.829268292682926</v>
       </c>
@@ -25517,48 +25515,48 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="107"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="133" cm="1">
+      <c r="E45" s="94" cm="1">
         <f t="array" ref="E45">SUMPRODUCT(E$19:E$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47.8125</v>
       </c>
-      <c r="F45" s="133" cm="1">
+      <c r="F45" s="94" cm="1">
         <f t="array" ref="F45">SUMPRODUCT(F$19:F$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>47.36363636363636</v>
       </c>
-      <c r="G45" s="133" cm="1">
+      <c r="G45" s="94" cm="1">
         <f t="array" ref="G45">SUMPRODUCT(G$19:G$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.941176470588232</v>
       </c>
-      <c r="H45" s="133" cm="1">
+      <c r="H45" s="94" cm="1">
         <f t="array" ref="H45">SUMPRODUCT(H$19:H$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.542857142857144</v>
       </c>
-      <c r="I45" s="133" cm="1">
+      <c r="I45" s="94" cm="1">
         <f t="array" ref="I45">SUMPRODUCT(I$19:I$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>46.166666666666671</v>
       </c>
-      <c r="J45" s="133" cm="1">
+      <c r="J45" s="94" cm="1">
         <f t="array" ref="J45">SUMPRODUCT(J$19:J$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>45.810810810810807</v>
       </c>
-      <c r="K45" s="133" cm="1">
+      <c r="K45" s="94" cm="1">
         <f t="array" ref="K45">SUMPRODUCT(K$19:K$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>45.473684210526308</v>
       </c>
-      <c r="L45" s="133" cm="1">
+      <c r="L45" s="94" cm="1">
         <f t="array" ref="L45">SUMPRODUCT(L$19:L$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>45.153846153846153</v>
       </c>
-      <c r="M45" s="133" cm="1">
+      <c r="M45" s="94" cm="1">
         <f t="array" ref="M45">SUMPRODUCT(M$19:M$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>44.85</v>
       </c>
-      <c r="N45" s="133" cm="1">
+      <c r="N45" s="94" cm="1">
         <f t="array" ref="N45">SUMPRODUCT(N$19:N$23,TRANSPOSE('Task3 - Analysis'!$C11:$G11))/100</f>
         <v>44.560975609756099</v>
       </c>
@@ -25569,13 +25567,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C28:C33"/>
     <mergeCell ref="E4:O4"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B17"/>
@@ -25586,6 +25577,13 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E26:O26"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assessment2/submission/assessment2_calcs.xlsx
+++ b/assessment2/submission/assessment2_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment2\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD1562-4505-43AE-A15B-1AAFFEC31AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4853DE-942E-495E-B148-AD4A1F0F087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21555" yWindow="0" windowWidth="19860" windowHeight="17400" tabRatio="730" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" xr2:uid="{128E22E7-D79F-4F4A-B9D4-5EF7FF588309}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1440,133 +1440,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1587,6 +1470,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1721,7 +1715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3654289-7E05-4B4B-96F3-73745045DA20}" type="CELLRANGE">
+                    <a:fld id="{AFE3C593-540B-448F-8549-442D57F291AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1760,7 +1754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BF2B6C9-2105-4A93-B5E4-E3D78FD45DF1}" type="CELLRANGE">
+                    <a:fld id="{DFBD1A66-5657-4A2B-9508-7AF3359431BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84FF9F8C-9A05-4D94-9D29-BE67ABF2A274}" type="CELLRANGE">
+                    <a:fld id="{CAB3ACC9-B37A-4830-95EE-472D0A134A61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1838,7 +1832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E03A6F9-4E01-4CBF-9D08-CD1B12C909D0}" type="CELLRANGE">
+                    <a:fld id="{B6A93378-2A32-4205-8CB0-D8601766B5AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1877,7 +1871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25F540DD-46DF-4D24-819E-3047DD22A7DE}" type="CELLRANGE">
+                    <a:fld id="{96A8E0C2-94B7-4696-B688-CCFAB3F2739D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9440,10 +9434,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg2"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -9839,6 +9830,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10196,6 +10194,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10558,6 +10563,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10920,6 +10932,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -18374,10 +18393,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>924700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18406,16 +18425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18450,10 +18469,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>924700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18482,16 +18501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18526,10 +18545,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>924700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18980,751 +18999,751 @@
   </sheetPr>
   <dimension ref="A1:ALT1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="169"/>
-    <col min="2" max="2" width="2.4140625" style="169" customWidth="1"/>
-    <col min="3" max="3" width="5.08203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="169"/>
-    <col min="6" max="6" width="2.4140625" style="169" customWidth="1"/>
-    <col min="7" max="7" width="5.08203125" style="169" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="169" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="169" customWidth="1"/>
-    <col min="10" max="10" width="2.4140625" style="169" customWidth="1"/>
-    <col min="11" max="11" width="5.08203125" style="169" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="169" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="169" customWidth="1"/>
-    <col min="14" max="14" width="2.4140625" style="169" customWidth="1"/>
-    <col min="15" max="15" width="5.08203125" style="169" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="169"/>
-    <col min="17" max="17" width="9.83203125" style="169" customWidth="1"/>
-    <col min="18" max="18" width="2.4140625" style="169" customWidth="1"/>
-    <col min="19" max="19" width="7.08203125" style="169" customWidth="1"/>
-    <col min="20" max="1999" width="8.6640625" style="169"/>
-    <col min="2000" max="2000" width="2.4140625" style="169" customWidth="1"/>
-    <col min="2001" max="16384" width="8.6640625" style="169"/>
+    <col min="1" max="1" width="8.6640625" style="130"/>
+    <col min="2" max="2" width="2.4140625" style="130" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" style="130" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="130"/>
+    <col min="6" max="6" width="2.4140625" style="130" customWidth="1"/>
+    <col min="7" max="7" width="5.08203125" style="130" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="130" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="130" customWidth="1"/>
+    <col min="10" max="10" width="2.4140625" style="130" customWidth="1"/>
+    <col min="11" max="11" width="5.08203125" style="130" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="130" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="130" customWidth="1"/>
+    <col min="14" max="14" width="2.4140625" style="130" customWidth="1"/>
+    <col min="15" max="15" width="5.08203125" style="130" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="130"/>
+    <col min="17" max="17" width="9.83203125" style="130" customWidth="1"/>
+    <col min="18" max="18" width="2.4140625" style="130" customWidth="1"/>
+    <col min="19" max="19" width="7.08203125" style="130" customWidth="1"/>
+    <col min="20" max="1999" width="8.6640625" style="130"/>
+    <col min="2000" max="2000" width="2.4140625" style="130" customWidth="1"/>
+    <col min="2001" max="16384" width="8.6640625" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="129" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="172" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="133" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A4" s="173"/>
-      <c r="D4" s="169" t="s">
+      <c r="A4" s="134"/>
+      <c r="D4" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="174"/>
+      <c r="S4" s="135"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="173"/>
-      <c r="S5" s="175">
+      <c r="A5" s="134"/>
+      <c r="S5" s="136">
         <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="173"/>
-      <c r="E6" s="169">
+      <c r="A6" s="134"/>
+      <c r="E6" s="130">
         <f>S5</f>
         <v>750</v>
       </c>
-      <c r="S6" s="175"/>
+      <c r="S6" s="136"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="173"/>
-      <c r="S7" s="175"/>
+      <c r="A7" s="134"/>
+      <c r="S7" s="136"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="173"/>
-      <c r="H8" s="176">
+      <c r="A8" s="134"/>
+      <c r="H8" s="137">
         <v>0.1</v>
       </c>
-      <c r="S8" s="175"/>
+      <c r="S8" s="136"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A9" s="173"/>
-      <c r="H9" s="169" t="s">
+      <c r="A9" s="134"/>
+      <c r="H9" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="175"/>
+      <c r="S9" s="136"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="173"/>
-      <c r="S10" s="175">
+      <c r="A10" s="134"/>
+      <c r="S10" s="136">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="173"/>
-      <c r="I11" s="169">
+      <c r="A11" s="134"/>
+      <c r="I11" s="130">
         <f>S10</f>
         <v>400</v>
       </c>
-      <c r="S11" s="175"/>
+      <c r="S11" s="136"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A12" s="173"/>
-      <c r="S12" s="175"/>
+      <c r="A12" s="134"/>
+      <c r="S12" s="136"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A13" s="173"/>
-      <c r="L13" s="176">
+      <c r="A13" s="134"/>
+      <c r="L13" s="137">
         <v>0.2</v>
       </c>
-      <c r="S13" s="175"/>
+      <c r="S13" s="136"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A14" s="173">
+      <c r="A14" s="134">
         <f>MIN(E6,E23)</f>
         <v>670</v>
       </c>
-      <c r="L14" s="169" t="s">
+      <c r="L14" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="175"/>
+      <c r="S14" s="136"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A15" s="173"/>
-      <c r="S15" s="175">
+      <c r="A15" s="134"/>
+      <c r="S15" s="136">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A16" s="173"/>
-      <c r="M16" s="169">
+      <c r="A16" s="134"/>
+      <c r="M16" s="130">
         <f>S15</f>
         <v>0</v>
       </c>
-      <c r="S16" s="175"/>
+      <c r="S16" s="136"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A17" s="173"/>
-      <c r="S17" s="175"/>
+      <c r="A17" s="134"/>
+      <c r="S17" s="136"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A18" s="173"/>
-      <c r="H18" s="176">
+      <c r="A18" s="134"/>
+      <c r="H18" s="137">
         <v>0.4</v>
       </c>
-      <c r="L18" s="176">
+      <c r="L18" s="137">
         <v>0.5</v>
       </c>
-      <c r="S18" s="175"/>
+      <c r="S18" s="136"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A19" s="173"/>
-      <c r="H19" s="169" t="s">
+      <c r="A19" s="134"/>
+      <c r="H19" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="169" t="s">
+      <c r="L19" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="175"/>
+      <c r="S19" s="136"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A20" s="173"/>
-      <c r="D20" s="180" t="s">
+      <c r="A20" s="134"/>
+      <c r="D20" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="180"/>
-      <c r="S20" s="175">
+      <c r="E20" s="141"/>
+      <c r="S20" s="136">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A21" s="173"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="I21" s="169">
+      <c r="A21" s="134"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="I21" s="130">
         <f>IF(ABS(1-SUM(L13,L18,L23))&lt;=0.00001,SUM(L13 * M16,L18 * M21,L23 * M26),NA())</f>
         <v>825</v>
       </c>
-      <c r="M21" s="169">
+      <c r="M21" s="130">
         <f>S20</f>
         <v>750</v>
       </c>
-      <c r="S21" s="175"/>
+      <c r="S21" s="136"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="173"/>
-      <c r="S22" s="175"/>
+      <c r="A22" s="134"/>
+      <c r="S22" s="136"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="173"/>
-      <c r="E23" s="169">
+      <c r="A23" s="134"/>
+      <c r="E23" s="130">
         <f>IF(ABS(1-SUM(H8,H18,H33))&lt;=0.00001,SUM(H8 * I11,H18 * I21,H33 * I36),NA())</f>
         <v>670</v>
       </c>
-      <c r="L23" s="176">
+      <c r="L23" s="137">
         <v>0.3</v>
       </c>
-      <c r="S23" s="175"/>
+      <c r="S23" s="136"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="173"/>
-      <c r="L24" s="169" t="s">
+      <c r="A24" s="134"/>
+      <c r="L24" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="175"/>
+      <c r="S24" s="136"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="173"/>
-      <c r="S25" s="175">
+      <c r="A25" s="134"/>
+      <c r="S25" s="136">
         <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="173"/>
-      <c r="M26" s="169">
+      <c r="A26" s="134"/>
+      <c r="M26" s="130">
         <f>S25</f>
         <v>1500</v>
       </c>
-      <c r="S26" s="175"/>
+      <c r="S26" s="136"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="173"/>
-      <c r="S27" s="175"/>
+      <c r="A27" s="134"/>
+      <c r="S27" s="136"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="173"/>
-      <c r="S28" s="175"/>
+      <c r="A28" s="134"/>
+      <c r="S28" s="136"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="173"/>
-      <c r="L29" s="169" t="s">
+      <c r="A29" s="134"/>
+      <c r="L29" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="S29" s="175"/>
+      <c r="S29" s="136"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="173"/>
-      <c r="S30" s="175">
+      <c r="A30" s="134"/>
+      <c r="S30" s="136">
         <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="173"/>
-      <c r="M31" s="169">
+      <c r="A31" s="134"/>
+      <c r="M31" s="130">
         <f>S30</f>
         <v>600</v>
       </c>
-      <c r="S31" s="175"/>
+      <c r="S31" s="136"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="173"/>
-      <c r="S32" s="175"/>
+      <c r="A32" s="134"/>
+      <c r="S32" s="136"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="173"/>
-      <c r="H33" s="176">
+      <c r="A33" s="134"/>
+      <c r="H33" s="137">
         <v>0.5</v>
       </c>
-      <c r="P33" s="176">
+      <c r="P33" s="137">
         <v>0.2</v>
       </c>
-      <c r="S33" s="175"/>
+      <c r="S33" s="136"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="173"/>
-      <c r="H34" s="169" t="s">
+      <c r="A34" s="134"/>
+      <c r="H34" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="169" t="s">
+      <c r="P34" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="S34" s="175"/>
+      <c r="S34" s="136"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="173"/>
-      <c r="S35" s="175">
+      <c r="A35" s="134"/>
+      <c r="S35" s="136">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="173"/>
-      <c r="I36" s="169">
+      <c r="A36" s="134"/>
+      <c r="I36" s="130">
         <f>MIN(M31,M41)</f>
         <v>600</v>
       </c>
-      <c r="Q36" s="169">
+      <c r="Q36" s="130">
         <f>S35</f>
         <v>0</v>
       </c>
-      <c r="S36" s="175"/>
+      <c r="S36" s="136"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="173"/>
-      <c r="S37" s="175"/>
+      <c r="A37" s="134"/>
+      <c r="S37" s="136"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="173"/>
-      <c r="P38" s="176">
+      <c r="A38" s="134"/>
+      <c r="P38" s="137">
         <v>0.5</v>
       </c>
-      <c r="S38" s="175"/>
+      <c r="S38" s="136"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="173"/>
-      <c r="L39" s="169" t="s">
+      <c r="A39" s="134"/>
+      <c r="L39" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="P39" s="169" t="s">
+      <c r="P39" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="S39" s="175"/>
+      <c r="S39" s="136"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="173"/>
-      <c r="S40" s="175">
+      <c r="A40" s="134"/>
+      <c r="S40" s="136">
         <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="173"/>
-      <c r="M41" s="169">
+      <c r="A41" s="134"/>
+      <c r="M41" s="130">
         <f>IF(ABS(1-SUM(P33,P38,P43))&lt;=0.00001,SUM(P33 * Q36,P38 * Q41,P43 * Q46),NA())</f>
         <v>825</v>
       </c>
-      <c r="Q41" s="169">
+      <c r="Q41" s="130">
         <f>S40</f>
         <v>750</v>
       </c>
-      <c r="S41" s="175"/>
+      <c r="S41" s="136"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="173"/>
-      <c r="S42" s="175"/>
+      <c r="A42" s="134"/>
+      <c r="S42" s="136"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="173"/>
-      <c r="P43" s="176">
+      <c r="A43" s="134"/>
+      <c r="P43" s="137">
         <v>0.3</v>
       </c>
-      <c r="S43" s="175"/>
+      <c r="S43" s="136"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="173"/>
-      <c r="P44" s="169" t="s">
+      <c r="A44" s="134"/>
+      <c r="P44" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="175"/>
+      <c r="S44" s="136"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="173"/>
-      <c r="S45" s="175">
+      <c r="A45" s="134"/>
+      <c r="S45" s="136">
         <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="173"/>
-      <c r="Q46" s="169">
+      <c r="A46" s="134"/>
+      <c r="Q46" s="130">
         <f>S45</f>
         <v>1500</v>
       </c>
-      <c r="S46" s="175"/>
+      <c r="S46" s="136"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="178"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="178"/>
-      <c r="N47" s="178"/>
-      <c r="O47" s="178"/>
-      <c r="P47" s="178"/>
-      <c r="Q47" s="178"/>
-      <c r="R47" s="178"/>
-      <c r="S47" s="179"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="139"/>
+      <c r="S47" s="140"/>
     </row>
     <row r="993" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALN993" s="169" t="s">
+      <c r="ALN993" s="130" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="1003" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1003" s="169" t="s">
+      <c r="ALM1003" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="ALN1003" s="169" t="s">
+      <c r="ALN1003" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="ALO1003" s="169" t="s">
+      <c r="ALO1003" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="ALP1003" s="169" t="s">
+      <c r="ALP1003" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="ALQ1003" s="169" t="s">
+      <c r="ALQ1003" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="ALR1003" s="169" t="s">
+      <c r="ALR1003" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="ALS1003" s="169" t="s">
+      <c r="ALS1003" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="ALT1003" s="169" t="s">
+      <c r="ALT1003" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="1004" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1004" s="169">
+      <c r="ALM1004" s="130">
         <v>1</v>
       </c>
-      <c r="ALN1004" s="169">
+      <c r="ALN1004" s="130">
         <v>14</v>
       </c>
-      <c r="ALO1004" s="169" t="s">
+      <c r="ALO1004" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1004" s="169">
+      <c r="ALP1004" s="130">
         <v>2</v>
       </c>
-      <c r="ALQ1004" s="169">
+      <c r="ALQ1004" s="130">
         <v>5</v>
       </c>
-      <c r="ALR1004" s="169" t="s">
+      <c r="ALR1004" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="ALT1004" s="169">
+      <c r="ALT1004" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1005" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1005" s="169">
+      <c r="ALM1005" s="130">
         <v>2</v>
       </c>
-      <c r="ALN1005" s="169">
+      <c r="ALN1005" s="130">
         <v>13</v>
       </c>
-      <c r="ALO1005" s="169" t="s">
+      <c r="ALO1005" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1005" s="169">
+      <c r="ALP1005" s="130">
         <v>7</v>
       </c>
-      <c r="ALQ1005" s="169">
+      <c r="ALQ1005" s="130">
         <v>9</v>
       </c>
-      <c r="ALR1005" s="169" t="s">
+      <c r="ALR1005" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="ALT1005" s="169">
+      <c r="ALT1005" s="130">
         <v>0.1</v>
       </c>
     </row>
     <row r="1006" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1006" s="169">
+      <c r="ALM1006" s="130">
         <v>3</v>
       </c>
-      <c r="ALN1006" s="169">
+      <c r="ALN1006" s="130">
         <v>6</v>
       </c>
-      <c r="ALO1006" s="169" t="s">
+      <c r="ALO1006" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1006" s="169">
+      <c r="ALP1006" s="130">
         <v>12</v>
       </c>
-      <c r="ALQ1006" s="169">
+      <c r="ALQ1006" s="130">
         <v>13</v>
       </c>
-      <c r="ALR1006" s="169" t="s">
+      <c r="ALR1006" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="ALT1006" s="169">
+      <c r="ALT1006" s="130">
         <v>0.2</v>
       </c>
     </row>
     <row r="1007" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1007" s="169">
+      <c r="ALM1007" s="130">
         <v>4</v>
       </c>
-      <c r="ALN1007" s="169">
+      <c r="ALN1007" s="130">
         <v>6</v>
       </c>
-      <c r="ALO1007" s="169" t="s">
+      <c r="ALO1007" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1007" s="169">
+      <c r="ALP1007" s="130">
         <v>17</v>
       </c>
-      <c r="ALQ1007" s="169">
+      <c r="ALQ1007" s="130">
         <v>13</v>
       </c>
-      <c r="ALR1007" s="169" t="s">
+      <c r="ALR1007" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="ALT1007" s="169">
+      <c r="ALT1007" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1008" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1008" s="169">
+      <c r="ALM1008" s="130">
         <v>5</v>
       </c>
-      <c r="ALN1008" s="169">
+      <c r="ALN1008" s="130">
         <v>6</v>
       </c>
-      <c r="ALO1008" s="169" t="s">
+      <c r="ALO1008" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1008" s="169">
+      <c r="ALP1008" s="130">
         <v>22</v>
       </c>
-      <c r="ALQ1008" s="169">
+      <c r="ALQ1008" s="130">
         <v>13</v>
       </c>
-      <c r="ALR1008" s="169" t="s">
+      <c r="ALR1008" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="ALT1008" s="169">
+      <c r="ALT1008" s="130">
         <v>0.3</v>
       </c>
     </row>
     <row r="1009" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1009" s="169">
+      <c r="ALM1009" s="130">
         <v>6</v>
       </c>
-      <c r="ALN1009" s="169">
+      <c r="ALN1009" s="130">
         <v>13</v>
       </c>
-      <c r="ALO1009" s="169" t="s">
+      <c r="ALO1009" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="ALP1009" s="169">
+      <c r="ALP1009" s="130">
         <v>17</v>
       </c>
-      <c r="ALQ1009" s="169">
+      <c r="ALQ1009" s="130">
         <v>9</v>
       </c>
-      <c r="ALR1009" s="169" t="s">
+      <c r="ALR1009" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="ALT1009" s="169">
+      <c r="ALT1009" s="130">
         <v>0.4</v>
       </c>
     </row>
     <row r="1010" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1010" s="169">
+      <c r="ALM1010" s="130">
         <v>7</v>
       </c>
-      <c r="ALN1010" s="169">
+      <c r="ALN1010" s="130">
         <v>12</v>
       </c>
-      <c r="ALO1010" s="169" t="s">
+      <c r="ALO1010" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1010" s="169">
+      <c r="ALP1010" s="130">
         <v>27</v>
       </c>
-      <c r="ALQ1010" s="169">
+      <c r="ALQ1010" s="130">
         <v>13</v>
       </c>
-      <c r="ALR1010" s="169" t="s">
+      <c r="ALR1010" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="ALT1010" s="169">
+      <c r="ALT1010" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1011" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1011" s="169">
+      <c r="ALM1011" s="130">
         <v>8</v>
       </c>
-      <c r="ALN1011" s="169">
+      <c r="ALN1011" s="130">
         <v>11</v>
       </c>
-      <c r="ALO1011" s="169" t="s">
+      <c r="ALO1011" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1011" s="169">
+      <c r="ALP1011" s="130">
         <v>32</v>
       </c>
-      <c r="ALQ1011" s="169">
+      <c r="ALQ1011" s="130">
         <v>17</v>
       </c>
-      <c r="ALR1011" s="169" t="s">
+      <c r="ALR1011" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="ALT1011" s="169">
+      <c r="ALT1011" s="130">
         <v>0.2</v>
       </c>
     </row>
     <row r="1012" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1012" s="169">
+      <c r="ALM1012" s="130">
         <v>9</v>
       </c>
-      <c r="ALN1012" s="169">
+      <c r="ALN1012" s="130">
         <v>11</v>
       </c>
-      <c r="ALO1012" s="169" t="s">
+      <c r="ALO1012" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1012" s="169">
+      <c r="ALP1012" s="130">
         <v>37</v>
       </c>
-      <c r="ALQ1012" s="169">
+      <c r="ALQ1012" s="130">
         <v>17</v>
       </c>
-      <c r="ALR1012" s="169" t="s">
+      <c r="ALR1012" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="ALT1012" s="169">
+      <c r="ALT1012" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1013" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1013" s="169">
+      <c r="ALM1013" s="130">
         <v>10</v>
       </c>
-      <c r="ALN1013" s="169">
+      <c r="ALN1013" s="130">
         <v>11</v>
       </c>
-      <c r="ALO1013" s="169" t="s">
+      <c r="ALO1013" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="ALP1013" s="169">
+      <c r="ALP1013" s="130">
         <v>42</v>
       </c>
-      <c r="ALQ1013" s="169">
+      <c r="ALQ1013" s="130">
         <v>17</v>
       </c>
-      <c r="ALR1013" s="169" t="s">
+      <c r="ALR1013" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="ALT1013" s="169">
+      <c r="ALT1013" s="130">
         <v>0.3</v>
       </c>
     </row>
     <row r="1014" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1014" s="169">
+      <c r="ALM1014" s="130">
         <v>11</v>
       </c>
-      <c r="ALN1014" s="169">
+      <c r="ALN1014" s="130">
         <v>12</v>
       </c>
-      <c r="ALO1014" s="169" t="s">
+      <c r="ALO1014" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="ALP1014" s="169">
+      <c r="ALP1014" s="130">
         <v>37</v>
       </c>
-      <c r="ALQ1014" s="169">
+      <c r="ALQ1014" s="130">
         <v>13</v>
       </c>
-      <c r="ALR1014" s="169" t="s">
+      <c r="ALR1014" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="ALT1014" s="169">
+      <c r="ALT1014" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1015" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1015" s="169">
+      <c r="ALM1015" s="130">
         <v>12</v>
       </c>
-      <c r="ALN1015" s="169">
+      <c r="ALN1015" s="130">
         <v>13</v>
       </c>
-      <c r="ALO1015" s="169" t="s">
+      <c r="ALO1015" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="ALP1015" s="169">
+      <c r="ALP1015" s="130">
         <v>32</v>
       </c>
-      <c r="ALQ1015" s="169">
+      <c r="ALQ1015" s="130">
         <v>9</v>
       </c>
-      <c r="ALR1015" s="169" t="s">
+      <c r="ALR1015" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="ALT1015" s="169">
+      <c r="ALT1015" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1016" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1016" s="169">
+      <c r="ALM1016" s="130">
         <v>13</v>
       </c>
-      <c r="ALN1016" s="169">
+      <c r="ALN1016" s="130">
         <v>14</v>
       </c>
-      <c r="ALO1016" s="169" t="s">
+      <c r="ALO1016" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="ALP1016" s="169">
+      <c r="ALP1016" s="130">
         <v>19</v>
       </c>
-      <c r="ALQ1016" s="169">
+      <c r="ALQ1016" s="130">
         <v>5</v>
       </c>
-      <c r="ALR1016" s="169" t="s">
+      <c r="ALR1016" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="ALT1016" s="169">
+      <c r="ALT1016" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="1017" spans="1001:1008" x14ac:dyDescent="0.5">
-      <c r="ALM1017" s="169">
+      <c r="ALM1017" s="130">
         <v>14</v>
       </c>
-      <c r="ALN1017" s="169">
+      <c r="ALN1017" s="130">
         <v>0</v>
       </c>
-      <c r="ALO1017" s="169" t="s">
+      <c r="ALO1017" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="ALP1017" s="169">
+      <c r="ALP1017" s="130">
         <v>10</v>
       </c>
-      <c r="ALQ1017" s="169">
+      <c r="ALQ1017" s="130">
         <v>1</v>
       </c>
-      <c r="ALR1017" s="169" t="s">
+      <c r="ALR1017" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="ALS1017" s="169">
+      <c r="ALS1017" s="130">
         <v>0</v>
       </c>
-      <c r="ALT1017" s="169">
+      <c r="ALT1017" s="130">
         <v>1</v>
       </c>
     </row>
@@ -19745,8 +19764,8 @@
   </sheetPr>
   <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -20143,20 +20162,20 @@
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="125" t="s">
+      <c r="E62" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="125" t="s">
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="126"/>
-      <c r="N62" s="127"/>
+      <c r="K62" s="143"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="143"/>
+      <c r="N62" s="144"/>
     </row>
     <row r="63" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C63" s="122" t="s">
@@ -20740,20 +20759,20 @@
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E99" s="125" t="s">
+      <c r="E99" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="125" t="s">
+      <c r="F99" s="143"/>
+      <c r="G99" s="143"/>
+      <c r="H99" s="143"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="126"/>
-      <c r="N99" s="127"/>
+      <c r="K99" s="143"/>
+      <c r="L99" s="143"/>
+      <c r="M99" s="143"/>
+      <c r="N99" s="144"/>
     </row>
     <row r="100" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C100" s="122" t="s">
@@ -21652,20 +21671,20 @@
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E136" s="125" t="s">
+      <c r="E136" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F136" s="126"/>
-      <c r="G136" s="126"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="125" t="s">
+      <c r="F136" s="143"/>
+      <c r="G136" s="143"/>
+      <c r="H136" s="143"/>
+      <c r="I136" s="144"/>
+      <c r="J136" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="K136" s="126"/>
-      <c r="L136" s="126"/>
-      <c r="M136" s="126"/>
-      <c r="N136" s="127"/>
+      <c r="K136" s="143"/>
+      <c r="L136" s="143"/>
+      <c r="M136" s="143"/>
+      <c r="N136" s="144"/>
     </row>
     <row r="137" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C137" s="122" t="s">
@@ -22263,8 +22282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDB724-EB94-4F12-9560-B4EA39B854DF}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -22311,22 +22330,22 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="149" t="s">
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="93" t="s">
         <v>74</v>
       </c>
     </row>
@@ -22343,12 +22362,12 @@
       <c r="E6" s="15">
         <v>144.96841020839997</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="153"/>
       <c r="J6" s="19" t="s">
         <v>77</v>
       </c>
@@ -22366,12 +22385,12 @@
       <c r="E7" s="23">
         <v>145.15677819478265</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="147"/>
       <c r="J7" s="26" t="s">
         <v>80</v>
       </c>
@@ -22389,12 +22408,12 @@
       <c r="E8" s="23">
         <v>145.36115421347824</v>
       </c>
-      <c r="F8" s="131" t="s">
+      <c r="F8" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="26" t="s">
         <v>83</v>
       </c>
@@ -22412,12 +22431,12 @@
       <c r="E9" s="23">
         <v>144.69593451409091</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="133"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="26" t="s">
         <v>85</v>
       </c>
@@ -22435,12 +22454,12 @@
       <c r="E10" s="23">
         <v>144.97506995476192</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="26" t="s">
         <v>77</v>
       </c>
@@ -22458,12 +22477,12 @@
       <c r="E11" s="30">
         <v>145.07139516952378</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="34" t="s">
         <v>89</v>
       </c>
@@ -22481,26 +22500,26 @@
     </row>
     <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="93" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="I15" s="148" t="s">
+      <c r="I15" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="154" t="s">
+      <c r="J15" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="149" t="s">
+      <c r="K15" s="93" t="s">
         <v>98</v>
       </c>
     </row>
@@ -22688,34 +22707,34 @@
     </row>
     <row r="24" spans="2:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="155">
+      <c r="C25" s="165">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D25" s="156">
+      <c r="D25" s="167">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="E25" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="161" t="s">
+      <c r="I25" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="157" t="s">
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="154" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="160"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="155"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="155"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
@@ -22887,18 +22906,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22909,8 +22928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779BE29-FEF8-4926-9FA0-B0F9F251FEB8}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23236,7 +23255,7 @@
     </row>
     <row r="84" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="85" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F85" s="148" t="s">
+      <c r="F85" s="122" t="s">
         <v>49</v>
       </c>
       <c r="G85" s="11" t="s">
@@ -23308,7 +23327,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C91" s="167" t="s">
+      <c r="C91" s="128" t="s">
         <v>128</v>
       </c>
       <c r="D91" s="55"/>
@@ -23371,8 +23390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB378B99-37B5-4CCF-952B-6B38A828707A}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -23619,8 +23638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BB13A-ACA3-44AE-82D3-4FA3505CFCC3}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -23641,19 +23660,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="76">
@@ -23701,13 +23720,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="143"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="74">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$86 + E$5</f>
         <v>270</v>
@@ -23754,8 +23773,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="138"/>
-      <c r="C7" s="140" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="175" t="s">
         <v>146</v>
       </c>
       <c r="D7" t="s">
@@ -23807,8 +23826,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="176"/>
       <c r="D8" t="s">
         <v>139</v>
       </c>
@@ -23858,8 +23877,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="176"/>
       <c r="D9" t="s">
         <v>140</v>
       </c>
@@ -23909,8 +23928,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="138"/>
-      <c r="C10" s="141"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="176"/>
       <c r="D10" t="s">
         <v>141</v>
       </c>
@@ -23960,8 +23979,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="139"/>
-      <c r="C11" s="142"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="38" t="s">
         <v>142</v>
       </c>
@@ -24011,13 +24030,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="143"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="74">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$88 + E$5</f>
         <v>290</v>
@@ -24064,8 +24083,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="138"/>
-      <c r="C13" s="140" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="175" t="s">
         <v>146</v>
       </c>
       <c r="D13" t="s">
@@ -24117,8 +24136,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="138"/>
-      <c r="C14" s="141"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="176"/>
       <c r="D14" t="s">
         <v>139</v>
       </c>
@@ -24168,8 +24187,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="138"/>
-      <c r="C15" s="141"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="176"/>
       <c r="D15" t="s">
         <v>140</v>
       </c>
@@ -24219,8 +24238,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="138"/>
-      <c r="C16" s="141"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="176"/>
       <c r="D16" t="s">
         <v>141</v>
       </c>
@@ -24270,8 +24289,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="38" t="s">
         <v>142</v>
       </c>
@@ -24321,13 +24340,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="143"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="74">
         <f>'Task3 - Value Funcs and Weights'!$F$91 - 'Task3 - Value Funcs and Weights'!$F$90 + E$5</f>
         <v>320</v>
@@ -24374,8 +24393,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="138"/>
-      <c r="C19" s="140" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="175" t="s">
         <v>146</v>
       </c>
       <c r="D19" t="s">
@@ -24427,8 +24446,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="138"/>
-      <c r="C20" s="141"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="176"/>
       <c r="D20" t="s">
         <v>139</v>
       </c>
@@ -24478,8 +24497,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="138"/>
-      <c r="C21" s="141"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="176"/>
       <c r="D21" t="s">
         <v>140</v>
       </c>
@@ -24529,8 +24548,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="138"/>
-      <c r="C22" s="141"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="176"/>
       <c r="D22" t="s">
         <v>141</v>
       </c>
@@ -24580,8 +24599,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="177"/>
       <c r="D23" s="38" t="s">
         <v>142</v>
       </c>
@@ -24636,19 +24655,19 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="144"/>
     </row>
     <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E27" s="40">
@@ -24696,10 +24715,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="172" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -24751,8 +24770,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="138"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="26" t="s">
         <v>78</v>
       </c>
@@ -24802,8 +24821,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="138"/>
-      <c r="C30" s="145"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="173"/>
       <c r="D30" s="26" t="s">
         <v>81</v>
       </c>
@@ -24853,8 +24872,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B31" s="138"/>
-      <c r="C31" s="145"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="26" t="s">
         <v>9</v>
       </c>
@@ -24904,8 +24923,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="138"/>
-      <c r="C32" s="145"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="173"/>
       <c r="D32" s="26" t="s">
         <v>11</v>
       </c>
@@ -24955,8 +24974,8 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="139"/>
-      <c r="C33" s="146"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="174"/>
       <c r="D33" s="34" t="s">
         <v>87</v>
       </c>
@@ -25006,10 +25025,10 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="172" t="s">
         <v>152</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -25061,8 +25080,8 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B35" s="138"/>
-      <c r="C35" s="145"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="173"/>
       <c r="D35" s="26" t="s">
         <v>78</v>
       </c>
@@ -25112,8 +25131,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B36" s="138"/>
-      <c r="C36" s="145"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="173"/>
       <c r="D36" s="26" t="s">
         <v>81</v>
       </c>
@@ -25163,8 +25182,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="138"/>
-      <c r="C37" s="145"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="173"/>
       <c r="D37" s="26" t="s">
         <v>9</v>
       </c>
@@ -25214,8 +25233,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B38" s="138"/>
-      <c r="C38" s="145"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="173"/>
       <c r="D38" s="26" t="s">
         <v>11</v>
       </c>
@@ -25265,8 +25284,8 @@
       </c>
     </row>
     <row r="39" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="139"/>
-      <c r="C39" s="146"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="174"/>
       <c r="D39" s="34" t="s">
         <v>87</v>
       </c>
@@ -25316,10 +25335,10 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="172" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -25371,8 +25390,8 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B41" s="138"/>
-      <c r="C41" s="145"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="173"/>
       <c r="D41" s="26" t="s">
         <v>78</v>
       </c>
@@ -25422,8 +25441,8 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B42" s="138"/>
-      <c r="C42" s="145"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="26" t="s">
         <v>81</v>
       </c>
@@ -25473,8 +25492,8 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B43" s="138"/>
-      <c r="C43" s="145"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
@@ -25524,8 +25543,8 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="138"/>
-      <c r="C44" s="145"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="173"/>
       <c r="D44" s="26" t="s">
         <v>11</v>
       </c>
@@ -25575,8 +25594,8 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="139"/>
-      <c r="C45" s="146"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="174"/>
       <c r="D45" s="34" t="s">
         <v>87</v>
       </c>
@@ -25627,13 +25646,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C28:C33"/>
     <mergeCell ref="E4:O4"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B17"/>
@@ -25644,6 +25656,13 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E26:O26"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
